--- a/1. HDA인적성검사 계산방식 엑셀_원본_v01.xlsx
+++ b/1. HDA인적성검사 계산방식 엑셀_원본_v01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\lodong-excel_php\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EE9655-0655-4D49-8AC3-7842F02A38C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA32B00-5C55-4484-AA31-E60072C54822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="909" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of content" sheetId="28" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1160">
   <si>
     <t>응시정보</t>
   </si>
@@ -4350,6 +4350,15 @@
   <si>
     <t xml:space="preserve">
 Sheet β. Calculation and application of the additive score according to the conditions</t>
+  </si>
+  <si>
+    <t>Confidence Scoring Conditions</t>
+  </si>
+  <si>
+    <t>Overall evaluation results</t>
+  </si>
+  <si>
+    <t>Exam Information</t>
   </si>
 </sst>
 </file>
@@ -6965,7 +6974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="619">
+  <cellXfs count="621">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8175,6 +8184,204 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="36" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="50" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="50" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="50" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="43" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="36" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="34" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="128" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="129" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="128" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="128" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="128" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="128" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8184,42 +8391,36 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8229,13 +8430,13 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="50" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="50" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8292,38 +8493,86 @@
     <xf numFmtId="0" fontId="33" fillId="36" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="36" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="36" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="47" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8340,6 +8589,27 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="110" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8349,24 +8619,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8385,6 +8640,39 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="81" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="30" borderId="52" xfId="39" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="30" borderId="63" xfId="39" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="42" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="96" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="109" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="45" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8400,15 +8688,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8418,30 +8697,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="30" borderId="52" xfId="39" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="30" borderId="63" xfId="39" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="42" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="96" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="109" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8577,251 +8832,11 @@
     <xf numFmtId="0" fontId="0" fillId="53" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="36" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="50" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="50" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="50" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="50" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="50" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="43" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="36" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="34" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="36" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="36" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="128" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="129" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="128" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="128" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="128" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="128" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -9173,170 +9188,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A1" s="537" t="s">
+      <c r="A1" s="403" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="537" t="s">
+      <c r="B1" s="403" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A2" s="538" t="s">
+      <c r="A2" s="404" t="s">
         <v>719</v>
       </c>
-      <c r="B2" s="539" t="s">
+      <c r="B2" s="405" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A3" s="538" t="s">
+      <c r="A3" s="404" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="540" t="s">
+      <c r="B3" s="406" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A4" s="538" t="s">
+      <c r="A4" s="404" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="540" t="s">
+      <c r="B4" s="406" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A5" s="538" t="s">
+      <c r="A5" s="404" t="s">
         <v>727</v>
       </c>
-      <c r="B5" s="540" t="s">
+      <c r="B5" s="406" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A6" s="538" t="s">
+      <c r="A6" s="404" t="s">
         <v>729</v>
       </c>
-      <c r="B6" s="540" t="s">
+      <c r="B6" s="406" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A7" s="538" t="s">
+      <c r="A7" s="404" t="s">
         <v>731</v>
       </c>
-      <c r="B7" s="540" t="s">
+      <c r="B7" s="406" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A8" s="538" t="s">
+      <c r="A8" s="404" t="s">
         <v>733</v>
       </c>
-      <c r="B8" s="540" t="s">
+      <c r="B8" s="406" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A9" s="538" t="s">
+      <c r="A9" s="404" t="s">
         <v>735</v>
       </c>
-      <c r="B9" s="539" t="s">
+      <c r="B9" s="405" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A10" s="538" t="s">
+      <c r="A10" s="404" t="s">
         <v>737</v>
       </c>
-      <c r="B10" s="540" t="s">
+      <c r="B10" s="406" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A11" s="538" t="s">
+      <c r="A11" s="404" t="s">
         <v>739</v>
       </c>
-      <c r="B11" s="541" t="s">
+      <c r="B11" s="407" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A12" s="538" t="s">
+      <c r="A12" s="404" t="s">
         <v>741</v>
       </c>
-      <c r="B12" s="540" t="s">
+      <c r="B12" s="406" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A13" s="538" t="s">
+      <c r="A13" s="404" t="s">
         <v>743</v>
       </c>
-      <c r="B13" s="540" t="s">
+      <c r="B13" s="406" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A14" s="538" t="s">
+      <c r="A14" s="404" t="s">
         <v>745</v>
       </c>
-      <c r="B14" s="540" t="s">
+      <c r="B14" s="406" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A15" s="538" t="s">
+      <c r="A15" s="404" t="s">
         <v>747</v>
       </c>
-      <c r="B15" s="540" t="s">
+      <c r="B15" s="406" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A16" s="538" t="s">
+      <c r="A16" s="404" t="s">
         <v>749</v>
       </c>
-      <c r="B16" s="540" t="s">
+      <c r="B16" s="406" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A17" s="538" t="s">
+      <c r="A17" s="404" t="s">
         <v>751</v>
       </c>
-      <c r="B17" s="540" t="s">
+      <c r="B17" s="406" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A18" s="538" t="s">
+      <c r="A18" s="404" t="s">
         <v>753</v>
       </c>
-      <c r="B18" s="540" t="s">
+      <c r="B18" s="406" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A19" s="538" t="s">
+      <c r="A19" s="404" t="s">
         <v>755</v>
       </c>
-      <c r="B19" s="540" t="s">
+      <c r="B19" s="406" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A20" s="538" t="s">
+      <c r="A20" s="404" t="s">
         <v>757</v>
       </c>
-      <c r="B20" s="540" t="s">
+      <c r="B20" s="406" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="46.5" customHeight="1">
-      <c r="A21" s="538" t="s">
+      <c r="A21" s="404" t="s">
         <v>759</v>
       </c>
-      <c r="B21" s="540" t="s">
+      <c r="B21" s="406" t="s">
         <v>760</v>
       </c>
     </row>
@@ -9364,35 +9379,35 @@
     <col min="9" max="9" width="14.7109375" style="322"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45.75" thickBot="1">
-      <c r="A1" s="608" t="s">
+    <row r="1" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A1" s="452" t="s">
         <v>1137</v>
       </c>
-      <c r="B1" s="609" t="s">
+      <c r="B1" s="453" t="s">
         <v>1046</v>
       </c>
-      <c r="C1" s="610" t="s">
+      <c r="C1" s="454" t="s">
         <v>1148</v>
       </c>
-      <c r="D1" s="611" t="s">
+      <c r="D1" s="455" t="s">
         <v>1149</v>
       </c>
-      <c r="E1" s="607" t="s">
+      <c r="E1" s="451" t="s">
         <v>1150</v>
       </c>
-      <c r="F1" s="612" t="s">
+      <c r="F1" s="456" t="s">
         <v>1149</v>
       </c>
-      <c r="G1" s="613" t="s">
+      <c r="G1" s="457" t="s">
         <v>1148</v>
       </c>
-      <c r="H1" s="614" t="s">
+      <c r="H1" s="458" t="s">
         <v>1149</v>
       </c>
       <c r="I1" s="377"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="461" t="s">
+      <c r="A2" s="540" t="s">
         <v>671</v>
       </c>
       <c r="B2" s="376">
@@ -9412,12 +9427,12 @@
       </c>
       <c r="G2" s="371"/>
       <c r="H2" s="370"/>
-      <c r="I2" s="464" t="s">
+      <c r="I2" s="542" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="462"/>
+      <c r="A3" s="541"/>
       <c r="B3" s="250">
         <v>24</v>
       </c>
@@ -9435,10 +9450,10 @@
       </c>
       <c r="G3" s="346"/>
       <c r="H3" s="345"/>
-      <c r="I3" s="464"/>
+      <c r="I3" s="542"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="462"/>
+      <c r="A4" s="541"/>
       <c r="B4" s="250">
         <v>25</v>
       </c>
@@ -9456,10 +9471,10 @@
       </c>
       <c r="G4" s="346"/>
       <c r="H4" s="345"/>
-      <c r="I4" s="464"/>
+      <c r="I4" s="542"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="462"/>
+      <c r="A5" s="541"/>
       <c r="B5" s="250">
         <v>44</v>
       </c>
@@ -9477,10 +9492,10 @@
       </c>
       <c r="G5" s="346"/>
       <c r="H5" s="345"/>
-      <c r="I5" s="464"/>
+      <c r="I5" s="542"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="462"/>
+      <c r="A6" s="541"/>
       <c r="B6" s="250">
         <v>54</v>
       </c>
@@ -9498,10 +9513,10 @@
       </c>
       <c r="G6" s="346"/>
       <c r="H6" s="345"/>
-      <c r="I6" s="464"/>
+      <c r="I6" s="542"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="462"/>
+      <c r="A7" s="541"/>
       <c r="B7" s="250">
         <v>104</v>
       </c>
@@ -9519,10 +9534,10 @@
       </c>
       <c r="G7" s="346"/>
       <c r="H7" s="345"/>
-      <c r="I7" s="464"/>
+      <c r="I7" s="542"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="462"/>
+      <c r="A8" s="541"/>
       <c r="B8" s="250">
         <v>114</v>
       </c>
@@ -9540,10 +9555,10 @@
       </c>
       <c r="G8" s="346"/>
       <c r="H8" s="345"/>
-      <c r="I8" s="464"/>
+      <c r="I8" s="542"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="462"/>
+      <c r="A9" s="541"/>
       <c r="B9" s="250">
         <v>124</v>
       </c>
@@ -9561,10 +9576,10 @@
       </c>
       <c r="G9" s="346"/>
       <c r="H9" s="345"/>
-      <c r="I9" s="464"/>
+      <c r="I9" s="542"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="462"/>
+      <c r="A10" s="541"/>
       <c r="B10" s="250">
         <v>134</v>
       </c>
@@ -9582,10 +9597,10 @@
       </c>
       <c r="G10" s="346"/>
       <c r="H10" s="345"/>
-      <c r="I10" s="464"/>
+      <c r="I10" s="542"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="462"/>
+      <c r="A11" s="541"/>
       <c r="B11" s="369">
         <v>144</v>
       </c>
@@ -9607,10 +9622,10 @@
       <c r="H11" s="363">
         <v>-1</v>
       </c>
-      <c r="I11" s="464"/>
+      <c r="I11" s="542"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="461" t="s">
+      <c r="A12" s="540" t="s">
         <v>669</v>
       </c>
       <c r="B12" s="362">
@@ -9630,12 +9645,12 @@
       </c>
       <c r="G12" s="337"/>
       <c r="H12" s="336"/>
-      <c r="I12" s="465" t="s">
+      <c r="I12" s="543" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="462"/>
+      <c r="A13" s="541"/>
       <c r="B13" s="359">
         <v>66</v>
       </c>
@@ -9649,10 +9664,10 @@
       <c r="F13" s="347"/>
       <c r="G13" s="346"/>
       <c r="H13" s="345"/>
-      <c r="I13" s="464"/>
+      <c r="I13" s="542"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="462"/>
+      <c r="A14" s="541"/>
       <c r="B14" s="359">
         <v>76</v>
       </c>
@@ -9666,10 +9681,10 @@
       <c r="F14" s="347"/>
       <c r="G14" s="346"/>
       <c r="H14" s="345"/>
-      <c r="I14" s="464"/>
+      <c r="I14" s="542"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="462"/>
+      <c r="A15" s="541"/>
       <c r="B15" s="359">
         <v>96</v>
       </c>
@@ -9683,10 +9698,10 @@
       <c r="F15" s="347"/>
       <c r="G15" s="346"/>
       <c r="H15" s="345"/>
-      <c r="I15" s="464"/>
+      <c r="I15" s="542"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="462"/>
+      <c r="A16" s="541"/>
       <c r="B16" s="359">
         <v>106</v>
       </c>
@@ -9700,10 +9715,10 @@
       <c r="F16" s="347"/>
       <c r="G16" s="346"/>
       <c r="H16" s="345"/>
-      <c r="I16" s="464"/>
+      <c r="I16" s="542"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="462"/>
+      <c r="A17" s="541"/>
       <c r="B17" s="359">
         <v>116</v>
       </c>
@@ -9717,10 +9732,10 @@
       <c r="F17" s="347"/>
       <c r="G17" s="346"/>
       <c r="H17" s="345"/>
-      <c r="I17" s="464"/>
+      <c r="I17" s="542"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="462"/>
+      <c r="A18" s="541"/>
       <c r="B18" s="359">
         <v>126</v>
       </c>
@@ -9734,10 +9749,10 @@
       <c r="F18" s="347"/>
       <c r="G18" s="346"/>
       <c r="H18" s="345"/>
-      <c r="I18" s="464"/>
+      <c r="I18" s="542"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="462"/>
+      <c r="A19" s="541"/>
       <c r="B19" s="359">
         <v>136</v>
       </c>
@@ -9751,10 +9766,10 @@
       <c r="F19" s="347"/>
       <c r="G19" s="346"/>
       <c r="H19" s="345"/>
-      <c r="I19" s="464"/>
+      <c r="I19" s="542"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="463"/>
+      <c r="A20" s="548"/>
       <c r="B20" s="358">
         <v>146</v>
       </c>
@@ -9772,10 +9787,10 @@
       </c>
       <c r="G20" s="330"/>
       <c r="H20" s="329"/>
-      <c r="I20" s="466"/>
+      <c r="I20" s="544"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="461" t="s">
+      <c r="A21" s="540" t="s">
         <v>667</v>
       </c>
       <c r="B21" s="342">
@@ -9795,12 +9810,12 @@
       </c>
       <c r="G21" s="337"/>
       <c r="H21" s="336"/>
-      <c r="I21" s="458" t="s">
+      <c r="I21" s="545" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="462"/>
+      <c r="A22" s="541"/>
       <c r="B22" s="351">
         <v>18</v>
       </c>
@@ -9814,10 +9829,10 @@
       <c r="F22" s="347"/>
       <c r="G22" s="346"/>
       <c r="H22" s="345"/>
-      <c r="I22" s="459"/>
+      <c r="I22" s="546"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="462"/>
+      <c r="A23" s="541"/>
       <c r="B23" s="351">
         <v>28</v>
       </c>
@@ -9835,10 +9850,10 @@
       </c>
       <c r="G23" s="346"/>
       <c r="H23" s="345"/>
-      <c r="I23" s="459"/>
+      <c r="I23" s="546"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="462"/>
+      <c r="A24" s="541"/>
       <c r="B24" s="351">
         <v>33</v>
       </c>
@@ -9856,10 +9871,10 @@
       </c>
       <c r="G24" s="346"/>
       <c r="H24" s="345"/>
-      <c r="I24" s="459"/>
+      <c r="I24" s="546"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="462"/>
+      <c r="A25" s="541"/>
       <c r="B25" s="351">
         <v>48</v>
       </c>
@@ -9873,10 +9888,10 @@
       <c r="F25" s="347"/>
       <c r="G25" s="346"/>
       <c r="H25" s="345"/>
-      <c r="I25" s="459"/>
+      <c r="I25" s="546"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="462"/>
+      <c r="A26" s="541"/>
       <c r="B26" s="351">
         <v>58</v>
       </c>
@@ -9890,10 +9905,10 @@
       <c r="F26" s="347"/>
       <c r="G26" s="346"/>
       <c r="H26" s="345"/>
-      <c r="I26" s="459"/>
+      <c r="I26" s="546"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A27" s="463"/>
+      <c r="A27" s="548"/>
       <c r="B27" s="335">
         <v>108</v>
       </c>
@@ -9911,10 +9926,10 @@
       </c>
       <c r="G27" s="330"/>
       <c r="H27" s="329"/>
-      <c r="I27" s="460"/>
+      <c r="I27" s="547"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="461" t="s">
+      <c r="A28" s="540" t="s">
         <v>665</v>
       </c>
       <c r="B28" s="342">
@@ -9934,12 +9949,12 @@
       </c>
       <c r="G28" s="337"/>
       <c r="H28" s="336"/>
-      <c r="I28" s="458" t="s">
+      <c r="I28" s="545" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="462"/>
+      <c r="A29" s="541"/>
       <c r="B29" s="351">
         <v>14</v>
       </c>
@@ -9957,10 +9972,10 @@
       </c>
       <c r="G29" s="346"/>
       <c r="H29" s="345"/>
-      <c r="I29" s="459"/>
+      <c r="I29" s="546"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="462"/>
+      <c r="A30" s="541"/>
       <c r="B30" s="351">
         <v>21</v>
       </c>
@@ -9982,10 +9997,10 @@
       <c r="H30" s="345">
         <v>2</v>
       </c>
-      <c r="I30" s="459"/>
+      <c r="I30" s="546"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="462"/>
+      <c r="A31" s="541"/>
       <c r="B31" s="351">
         <v>31</v>
       </c>
@@ -9999,10 +10014,10 @@
       <c r="F31" s="347"/>
       <c r="G31" s="346"/>
       <c r="H31" s="345"/>
-      <c r="I31" s="459"/>
+      <c r="I31" s="546"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="462"/>
+      <c r="A32" s="541"/>
       <c r="B32" s="351">
         <v>41</v>
       </c>
@@ -10016,10 +10031,10 @@
       <c r="F32" s="347"/>
       <c r="G32" s="346"/>
       <c r="H32" s="345"/>
-      <c r="I32" s="459"/>
+      <c r="I32" s="546"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="462"/>
+      <c r="A33" s="541"/>
       <c r="B33" s="351">
         <v>51</v>
       </c>
@@ -10033,10 +10048,10 @@
       <c r="F33" s="347"/>
       <c r="G33" s="346"/>
       <c r="H33" s="345"/>
-      <c r="I33" s="459"/>
+      <c r="I33" s="546"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="462"/>
+      <c r="A34" s="541"/>
       <c r="B34" s="351">
         <v>111</v>
       </c>
@@ -10054,10 +10069,10 @@
       </c>
       <c r="G34" s="346"/>
       <c r="H34" s="345"/>
-      <c r="I34" s="459"/>
+      <c r="I34" s="546"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A35" s="463"/>
+      <c r="A35" s="548"/>
       <c r="B35" s="335">
         <v>118</v>
       </c>
@@ -10071,10 +10086,10 @@
       <c r="F35" s="331"/>
       <c r="G35" s="330"/>
       <c r="H35" s="329"/>
-      <c r="I35" s="460"/>
+      <c r="I35" s="547"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="461" t="s">
+      <c r="A36" s="540" t="s">
         <v>663</v>
       </c>
       <c r="B36" s="342">
@@ -10090,12 +10105,12 @@
       <c r="F36" s="338"/>
       <c r="G36" s="337"/>
       <c r="H36" s="336"/>
-      <c r="I36" s="458" t="s">
+      <c r="I36" s="545" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="462"/>
+      <c r="A37" s="541"/>
       <c r="B37" s="351">
         <v>19</v>
       </c>
@@ -10109,10 +10124,10 @@
       <c r="F37" s="347"/>
       <c r="G37" s="346"/>
       <c r="H37" s="345"/>
-      <c r="I37" s="459"/>
+      <c r="I37" s="546"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="462"/>
+      <c r="A38" s="541"/>
       <c r="B38" s="351">
         <v>139</v>
       </c>
@@ -10126,10 +10141,10 @@
       <c r="F38" s="347"/>
       <c r="G38" s="346"/>
       <c r="H38" s="345"/>
-      <c r="I38" s="459"/>
+      <c r="I38" s="546"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="462"/>
+      <c r="A39" s="541"/>
       <c r="B39" s="351">
         <v>149</v>
       </c>
@@ -10143,10 +10158,10 @@
       <c r="F39" s="347"/>
       <c r="G39" s="346"/>
       <c r="H39" s="345"/>
-      <c r="I39" s="459"/>
+      <c r="I39" s="546"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A40" s="463"/>
+      <c r="A40" s="548"/>
       <c r="B40" s="335">
         <v>150</v>
       </c>
@@ -10160,10 +10175,10 @@
       <c r="F40" s="331"/>
       <c r="G40" s="330"/>
       <c r="H40" s="329"/>
-      <c r="I40" s="460"/>
+      <c r="I40" s="547"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="461" t="s">
+      <c r="A41" s="540" t="s">
         <v>661</v>
       </c>
       <c r="B41" s="342">
@@ -10179,12 +10194,12 @@
       <c r="F41" s="338"/>
       <c r="G41" s="337"/>
       <c r="H41" s="336"/>
-      <c r="I41" s="458" t="s">
+      <c r="I41" s="545" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="462"/>
+      <c r="A42" s="541"/>
       <c r="B42" s="351">
         <v>55</v>
       </c>
@@ -10198,10 +10213,10 @@
       <c r="F42" s="347"/>
       <c r="G42" s="346"/>
       <c r="H42" s="345"/>
-      <c r="I42" s="459"/>
+      <c r="I42" s="546"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="462"/>
+      <c r="A43" s="541"/>
       <c r="B43" s="351">
         <v>57</v>
       </c>
@@ -10215,10 +10230,10 @@
       <c r="F43" s="347"/>
       <c r="G43" s="346"/>
       <c r="H43" s="345"/>
-      <c r="I43" s="459"/>
+      <c r="I43" s="546"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="462"/>
+      <c r="A44" s="541"/>
       <c r="B44" s="351">
         <v>67</v>
       </c>
@@ -10232,10 +10247,10 @@
       <c r="F44" s="347"/>
       <c r="G44" s="346"/>
       <c r="H44" s="345"/>
-      <c r="I44" s="459"/>
+      <c r="I44" s="546"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="462"/>
+      <c r="A45" s="541"/>
       <c r="B45" s="351">
         <v>77</v>
       </c>
@@ -10249,10 +10264,10 @@
       <c r="F45" s="347"/>
       <c r="G45" s="346"/>
       <c r="H45" s="345"/>
-      <c r="I45" s="459"/>
+      <c r="I45" s="546"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="462"/>
+      <c r="A46" s="541"/>
       <c r="B46" s="351">
         <v>97</v>
       </c>
@@ -10266,10 +10281,10 @@
       <c r="F46" s="347"/>
       <c r="G46" s="346"/>
       <c r="H46" s="345"/>
-      <c r="I46" s="459"/>
+      <c r="I46" s="546"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="462"/>
+      <c r="A47" s="541"/>
       <c r="B47" s="351">
         <v>107</v>
       </c>
@@ -10283,10 +10298,10 @@
       <c r="F47" s="347"/>
       <c r="G47" s="346"/>
       <c r="H47" s="345"/>
-      <c r="I47" s="459"/>
+      <c r="I47" s="546"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="462"/>
+      <c r="A48" s="541"/>
       <c r="B48" s="351">
         <v>117</v>
       </c>
@@ -10300,10 +10315,10 @@
       <c r="F48" s="347"/>
       <c r="G48" s="346"/>
       <c r="H48" s="345"/>
-      <c r="I48" s="459"/>
+      <c r="I48" s="546"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="462"/>
+      <c r="A49" s="541"/>
       <c r="B49" s="351">
         <v>127</v>
       </c>
@@ -10317,10 +10332,10 @@
       <c r="F49" s="347"/>
       <c r="G49" s="346"/>
       <c r="H49" s="345"/>
-      <c r="I49" s="459"/>
+      <c r="I49" s="546"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="463"/>
+      <c r="A50" s="548"/>
       <c r="B50" s="335">
         <v>147</v>
       </c>
@@ -10334,10 +10349,10 @@
       <c r="F50" s="331"/>
       <c r="G50" s="330"/>
       <c r="H50" s="329"/>
-      <c r="I50" s="460"/>
+      <c r="I50" s="547"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="461" t="s">
+      <c r="A51" s="540" t="s">
         <v>659</v>
       </c>
       <c r="B51" s="342">
@@ -10353,12 +10368,12 @@
       <c r="F51" s="338"/>
       <c r="G51" s="337"/>
       <c r="H51" s="336"/>
-      <c r="I51" s="458" t="s">
+      <c r="I51" s="545" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="462"/>
+      <c r="A52" s="541"/>
       <c r="B52" s="351">
         <v>35</v>
       </c>
@@ -10372,10 +10387,10 @@
       <c r="F52" s="347"/>
       <c r="G52" s="346"/>
       <c r="H52" s="345"/>
-      <c r="I52" s="459"/>
+      <c r="I52" s="546"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A53" s="463"/>
+      <c r="A53" s="548"/>
       <c r="B53" s="335">
         <v>95</v>
       </c>
@@ -10389,10 +10404,10 @@
       <c r="F53" s="331"/>
       <c r="G53" s="330"/>
       <c r="H53" s="329"/>
-      <c r="I53" s="460"/>
+      <c r="I53" s="547"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="461" t="s">
+      <c r="A54" s="540" t="s">
         <v>657</v>
       </c>
       <c r="B54" s="342">
@@ -10408,12 +10423,12 @@
       <c r="F54" s="338"/>
       <c r="G54" s="337"/>
       <c r="H54" s="336"/>
-      <c r="I54" s="458" t="s">
+      <c r="I54" s="545" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="462"/>
+      <c r="A55" s="541"/>
       <c r="B55" s="351">
         <v>53</v>
       </c>
@@ -10427,10 +10442,10 @@
       <c r="F55" s="347"/>
       <c r="G55" s="346"/>
       <c r="H55" s="345"/>
-      <c r="I55" s="459"/>
+      <c r="I55" s="546"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="462"/>
+      <c r="A56" s="541"/>
       <c r="B56" s="351">
         <v>73</v>
       </c>
@@ -10444,10 +10459,10 @@
       <c r="F56" s="347"/>
       <c r="G56" s="346"/>
       <c r="H56" s="345"/>
-      <c r="I56" s="459"/>
+      <c r="I56" s="546"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="462"/>
+      <c r="A57" s="541"/>
       <c r="B57" s="351">
         <v>113</v>
       </c>
@@ -10461,10 +10476,10 @@
       <c r="F57" s="347"/>
       <c r="G57" s="346"/>
       <c r="H57" s="345"/>
-      <c r="I57" s="459"/>
+      <c r="I57" s="546"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A58" s="463"/>
+      <c r="A58" s="548"/>
       <c r="B58" s="335">
         <v>143</v>
       </c>
@@ -10478,10 +10493,10 @@
       <c r="F58" s="331"/>
       <c r="G58" s="330"/>
       <c r="H58" s="329"/>
-      <c r="I58" s="460"/>
+      <c r="I58" s="547"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="461" t="s">
+      <c r="A59" s="540" t="s">
         <v>655</v>
       </c>
       <c r="B59" s="342">
@@ -10497,12 +10512,12 @@
       <c r="F59" s="338"/>
       <c r="G59" s="337"/>
       <c r="H59" s="336"/>
-      <c r="I59" s="458" t="s">
+      <c r="I59" s="545" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A60" s="463"/>
+      <c r="A60" s="548"/>
       <c r="B60" s="335">
         <v>122</v>
       </c>
@@ -10516,15 +10531,15 @@
       <c r="F60" s="331"/>
       <c r="G60" s="330"/>
       <c r="H60" s="329"/>
-      <c r="I60" s="460"/>
+      <c r="I60" s="547"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I12:I20"/>
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="I41:I50"/>
     <mergeCell ref="I51:I53"/>
     <mergeCell ref="A12:A20"/>
@@ -10533,11 +10548,11 @@
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A50"/>
     <mergeCell ref="I36:I40"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I12:I20"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="I28:I35"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10576,13 +10591,13 @@
       <c r="A2" s="286" t="s">
         <v>684</v>
       </c>
-      <c r="B2" s="467" t="s">
+      <c r="B2" s="549" t="s">
         <v>1155</v>
       </c>
-      <c r="C2" s="469" t="s">
+      <c r="C2" s="551" t="s">
         <v>1156</v>
       </c>
-      <c r="D2" s="471" t="s">
+      <c r="D2" s="553" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -10590,65 +10605,65 @@
       <c r="A3" s="286" t="s">
         <v>682</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="471"/>
+      <c r="B3" s="549"/>
+      <c r="C3" s="551"/>
+      <c r="D3" s="553"/>
     </row>
     <row r="4" spans="1:4" ht="33" customHeight="1">
       <c r="A4" s="286" t="s">
         <v>667</v>
       </c>
-      <c r="B4" s="467"/>
-      <c r="C4" s="469"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="549"/>
+      <c r="C4" s="551"/>
+      <c r="D4" s="553"/>
     </row>
     <row r="5" spans="1:4" ht="33" customHeight="1">
       <c r="A5" s="286" t="s">
         <v>681</v>
       </c>
-      <c r="B5" s="467"/>
-      <c r="C5" s="469"/>
-      <c r="D5" s="471"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="551"/>
+      <c r="D5" s="553"/>
     </row>
     <row r="6" spans="1:4" ht="33" customHeight="1">
       <c r="A6" s="286" t="s">
         <v>680</v>
       </c>
-      <c r="B6" s="467"/>
-      <c r="C6" s="469"/>
-      <c r="D6" s="471"/>
+      <c r="B6" s="549"/>
+      <c r="C6" s="551"/>
+      <c r="D6" s="553"/>
     </row>
     <row r="7" spans="1:4" ht="33" customHeight="1">
       <c r="A7" s="286" t="s">
         <v>679</v>
       </c>
-      <c r="B7" s="467"/>
-      <c r="C7" s="469"/>
-      <c r="D7" s="471"/>
+      <c r="B7" s="549"/>
+      <c r="C7" s="551"/>
+      <c r="D7" s="553"/>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1">
       <c r="A8" s="286" t="s">
         <v>678</v>
       </c>
-      <c r="B8" s="467"/>
-      <c r="C8" s="469"/>
-      <c r="D8" s="471"/>
+      <c r="B8" s="549"/>
+      <c r="C8" s="551"/>
+      <c r="D8" s="553"/>
     </row>
     <row r="9" spans="1:4" ht="33" customHeight="1">
       <c r="A9" s="286" t="s">
         <v>677</v>
       </c>
-      <c r="B9" s="467"/>
-      <c r="C9" s="469"/>
-      <c r="D9" s="471"/>
+      <c r="B9" s="549"/>
+      <c r="C9" s="551"/>
+      <c r="D9" s="553"/>
     </row>
     <row r="10" spans="1:4" ht="33" customHeight="1" thickBot="1">
       <c r="A10" s="287" t="s">
         <v>676</v>
       </c>
-      <c r="B10" s="468"/>
-      <c r="C10" s="470"/>
-      <c r="D10" s="472"/>
+      <c r="B10" s="550"/>
+      <c r="C10" s="552"/>
+      <c r="D10" s="554"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="208" t="s">
@@ -10668,10 +10683,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10699,13 +10714,13 @@
       <c r="A2" s="286" t="s">
         <v>717</v>
       </c>
-      <c r="B2" s="467" t="s">
+      <c r="B2" s="549" t="s">
         <v>716</v>
       </c>
-      <c r="C2" s="469" t="s">
+      <c r="C2" s="551" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="471" t="s">
+      <c r="D2" s="553" t="s">
         <v>715</v>
       </c>
     </row>
@@ -10713,79 +10728,79 @@
       <c r="A3" s="286" t="s">
         <v>682</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="471"/>
+      <c r="B3" s="549"/>
+      <c r="C3" s="551"/>
+      <c r="D3" s="553"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1">
       <c r="A4" s="286" t="s">
         <v>667</v>
       </c>
-      <c r="B4" s="467"/>
-      <c r="C4" s="469"/>
-      <c r="D4" s="471"/>
+      <c r="B4" s="549"/>
+      <c r="C4" s="551"/>
+      <c r="D4" s="553"/>
     </row>
     <row r="5" spans="1:18" ht="33" customHeight="1">
       <c r="A5" s="286" t="s">
         <v>665</v>
       </c>
-      <c r="B5" s="467"/>
-      <c r="C5" s="469"/>
-      <c r="D5" s="471"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="551"/>
+      <c r="D5" s="553"/>
     </row>
     <row r="6" spans="1:18" ht="33" customHeight="1">
       <c r="A6" s="286" t="s">
         <v>649</v>
       </c>
-      <c r="B6" s="467"/>
-      <c r="C6" s="469"/>
-      <c r="D6" s="471"/>
+      <c r="B6" s="549"/>
+      <c r="C6" s="551"/>
+      <c r="D6" s="553"/>
     </row>
     <row r="7" spans="1:18" ht="33" customHeight="1">
       <c r="A7" s="286" t="s">
         <v>714</v>
       </c>
-      <c r="B7" s="467"/>
-      <c r="C7" s="469"/>
-      <c r="D7" s="471"/>
+      <c r="B7" s="549"/>
+      <c r="C7" s="551"/>
+      <c r="D7" s="553"/>
     </row>
     <row r="8" spans="1:18" ht="33" customHeight="1">
       <c r="A8" s="286" t="s">
         <v>713</v>
       </c>
-      <c r="B8" s="467"/>
-      <c r="C8" s="469"/>
-      <c r="D8" s="471"/>
+      <c r="B8" s="549"/>
+      <c r="C8" s="551"/>
+      <c r="D8" s="553"/>
     </row>
     <row r="9" spans="1:18" ht="33" customHeight="1">
       <c r="A9" s="286" t="s">
         <v>657</v>
       </c>
-      <c r="B9" s="467"/>
-      <c r="C9" s="469"/>
-      <c r="D9" s="471"/>
+      <c r="B9" s="549"/>
+      <c r="C9" s="551"/>
+      <c r="D9" s="553"/>
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1" thickBot="1">
       <c r="A10" s="287" t="s">
         <v>712</v>
       </c>
-      <c r="B10" s="468"/>
-      <c r="C10" s="470"/>
-      <c r="D10" s="472"/>
+      <c r="B10" s="550"/>
+      <c r="C10" s="552"/>
+      <c r="D10" s="554"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="A12" s="208"/>
-      <c r="K12" s="491" t="s">
+      <c r="K12" s="562" t="s">
         <v>711</v>
       </c>
-      <c r="L12" s="491"/>
-      <c r="M12" s="491"/>
-      <c r="N12" s="491"/>
-      <c r="O12" s="491"/>
-      <c r="P12" s="491"/>
+      <c r="L12" s="562"/>
+      <c r="M12" s="562"/>
+      <c r="N12" s="562"/>
+      <c r="O12" s="562"/>
+      <c r="P12" s="562"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A13" s="473" t="s">
+      <c r="A13" s="566" t="s">
         <v>710</v>
       </c>
       <c r="B13" s="402" t="s">
@@ -10797,7 +10812,7 @@
       <c r="D13" s="378" t="s">
         <v>708</v>
       </c>
-      <c r="F13" s="488" t="s">
+      <c r="F13" s="559" t="s">
         <v>707</v>
       </c>
       <c r="G13" s="380" t="s">
@@ -10838,7 +10853,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="474"/>
+      <c r="A14" s="567"/>
       <c r="B14" s="246" t="s">
         <v>671</v>
       </c>
@@ -10848,8 +10863,8 @@
       <c r="D14" s="250">
         <v>88</v>
       </c>
-      <c r="F14" s="489"/>
-      <c r="G14" s="486" t="s">
+      <c r="F14" s="560"/>
+      <c r="G14" s="557" t="s">
         <v>682</v>
       </c>
       <c r="H14" s="202">
@@ -10861,23 +10876,23 @@
       <c r="J14" s="250" t="s">
         <v>701</v>
       </c>
-      <c r="K14" s="478" t="s">
+      <c r="K14" s="563" t="s">
         <v>696</v>
       </c>
-      <c r="L14" s="479"/>
-      <c r="M14" s="479"/>
-      <c r="N14" s="479"/>
-      <c r="O14" s="479"/>
-      <c r="P14" s="480"/>
-      <c r="Q14" s="476" t="s">
+      <c r="L14" s="564"/>
+      <c r="M14" s="564"/>
+      <c r="N14" s="564"/>
+      <c r="O14" s="564"/>
+      <c r="P14" s="565"/>
+      <c r="Q14" s="569" t="s">
         <v>700</v>
       </c>
-      <c r="R14" s="484" t="s">
+      <c r="R14" s="555" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="474"/>
+      <c r="A15" s="567"/>
       <c r="B15" s="396" t="s">
         <v>682</v>
       </c>
@@ -10887,8 +10902,8 @@
       <c r="D15" s="395">
         <v>81</v>
       </c>
-      <c r="F15" s="489"/>
-      <c r="G15" s="486"/>
+      <c r="F15" s="560"/>
+      <c r="G15" s="557"/>
       <c r="H15" s="202">
         <v>16</v>
       </c>
@@ -10898,19 +10913,19 @@
       <c r="J15" s="250" t="s">
         <v>691</v>
       </c>
-      <c r="K15" s="478" t="s">
+      <c r="K15" s="563" t="s">
         <v>698</v>
       </c>
-      <c r="L15" s="479"/>
-      <c r="M15" s="479"/>
-      <c r="N15" s="479"/>
-      <c r="O15" s="479"/>
-      <c r="P15" s="480"/>
-      <c r="Q15" s="476"/>
-      <c r="R15" s="484"/>
+      <c r="L15" s="564"/>
+      <c r="M15" s="564"/>
+      <c r="N15" s="564"/>
+      <c r="O15" s="564"/>
+      <c r="P15" s="565"/>
+      <c r="Q15" s="569"/>
+      <c r="R15" s="555"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="474"/>
+      <c r="A16" s="567"/>
       <c r="B16" s="246" t="s">
         <v>667</v>
       </c>
@@ -10920,8 +10935,8 @@
       <c r="D16" s="250">
         <v>69.5</v>
       </c>
-      <c r="F16" s="489"/>
-      <c r="G16" s="486"/>
+      <c r="F16" s="560"/>
+      <c r="G16" s="557"/>
       <c r="H16" s="394">
         <v>26</v>
       </c>
@@ -10931,19 +10946,19 @@
       <c r="J16" s="393" t="s">
         <v>689</v>
       </c>
-      <c r="K16" s="481" t="s">
+      <c r="K16" s="571" t="s">
         <v>696</v>
       </c>
-      <c r="L16" s="482"/>
-      <c r="M16" s="482"/>
-      <c r="N16" s="482"/>
-      <c r="O16" s="482"/>
-      <c r="P16" s="483"/>
-      <c r="Q16" s="476"/>
-      <c r="R16" s="484"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="474"/>
+      <c r="L16" s="572"/>
+      <c r="M16" s="572"/>
+      <c r="N16" s="572"/>
+      <c r="O16" s="572"/>
+      <c r="P16" s="573"/>
+      <c r="Q16" s="569"/>
+      <c r="R16" s="555"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5">
+      <c r="A17" s="567"/>
       <c r="B17" s="246" t="s">
         <v>665</v>
       </c>
@@ -10953,8 +10968,8 @@
       <c r="D17" s="250">
         <v>56</v>
       </c>
-      <c r="F17" s="489"/>
-      <c r="G17" s="486"/>
+      <c r="F17" s="560"/>
+      <c r="G17" s="557"/>
       <c r="H17" s="202">
         <v>36</v>
       </c>
@@ -10964,19 +10979,25 @@
       <c r="J17" s="250" t="s">
         <v>692</v>
       </c>
-      <c r="K17" s="478" t="s">
+      <c r="K17" s="563" t="s">
         <v>690</v>
       </c>
-      <c r="L17" s="479"/>
-      <c r="M17" s="479"/>
-      <c r="N17" s="479"/>
-      <c r="O17" s="479"/>
-      <c r="P17" s="480"/>
-      <c r="Q17" s="476"/>
-      <c r="R17" s="484"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="474"/>
+      <c r="L17" s="564"/>
+      <c r="M17" s="564"/>
+      <c r="N17" s="564"/>
+      <c r="O17" s="564"/>
+      <c r="P17" s="565"/>
+      <c r="Q17" s="569"/>
+      <c r="R17" s="555"/>
+      <c r="T17" t="s">
+        <v>741</v>
+      </c>
+      <c r="U17" s="620" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="567"/>
       <c r="B18" s="246" t="s">
         <v>649</v>
       </c>
@@ -10986,8 +11007,8 @@
       <c r="D18" s="250">
         <v>91</v>
       </c>
-      <c r="F18" s="489"/>
-      <c r="G18" s="486"/>
+      <c r="F18" s="560"/>
+      <c r="G18" s="557"/>
       <c r="H18" s="202">
         <v>46</v>
       </c>
@@ -10997,19 +11018,19 @@
       <c r="J18" s="250" t="s">
         <v>697</v>
       </c>
-      <c r="K18" s="478" t="s">
+      <c r="K18" s="563" t="s">
         <v>696</v>
       </c>
-      <c r="L18" s="479"/>
-      <c r="M18" s="479"/>
-      <c r="N18" s="479"/>
-      <c r="O18" s="479"/>
-      <c r="P18" s="480"/>
-      <c r="Q18" s="476"/>
-      <c r="R18" s="484"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="474"/>
+      <c r="L18" s="564"/>
+      <c r="M18" s="564"/>
+      <c r="N18" s="564"/>
+      <c r="O18" s="564"/>
+      <c r="P18" s="565"/>
+      <c r="Q18" s="569"/>
+      <c r="R18" s="555"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="567"/>
       <c r="B19" s="246" t="s">
         <v>695</v>
       </c>
@@ -11019,8 +11040,8 @@
       <c r="D19" s="250">
         <v>86.5</v>
       </c>
-      <c r="F19" s="489"/>
-      <c r="G19" s="486"/>
+      <c r="F19" s="560"/>
+      <c r="G19" s="557"/>
       <c r="H19" s="392">
         <v>56</v>
       </c>
@@ -11044,11 +11065,11 @@
       </c>
       <c r="O19" s="190"/>
       <c r="P19" s="151"/>
-      <c r="Q19" s="476"/>
-      <c r="R19" s="484"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="474"/>
+      <c r="Q19" s="569"/>
+      <c r="R19" s="555"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="567"/>
       <c r="B20" s="246" t="s">
         <v>678</v>
       </c>
@@ -11058,8 +11079,8 @@
       <c r="D20" s="250">
         <v>90</v>
       </c>
-      <c r="F20" s="489"/>
-      <c r="G20" s="486"/>
+      <c r="F20" s="560"/>
+      <c r="G20" s="557"/>
       <c r="H20" s="202">
         <v>66</v>
       </c>
@@ -11079,11 +11100,11 @@
       <c r="N20" s="190"/>
       <c r="O20" s="190"/>
       <c r="P20" s="151"/>
-      <c r="Q20" s="476"/>
-      <c r="R20" s="484"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="474"/>
+      <c r="Q20" s="569"/>
+      <c r="R20" s="555"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="567"/>
       <c r="B21" s="246" t="s">
         <v>657</v>
       </c>
@@ -11093,8 +11114,8 @@
       <c r="D21" s="250">
         <v>49.5</v>
       </c>
-      <c r="F21" s="489"/>
-      <c r="G21" s="486"/>
+      <c r="F21" s="560"/>
+      <c r="G21" s="557"/>
       <c r="H21" s="202">
         <v>76</v>
       </c>
@@ -11114,11 +11135,11 @@
       <c r="N21" s="190"/>
       <c r="O21" s="190"/>
       <c r="P21" s="151"/>
-      <c r="Q21" s="476"/>
-      <c r="R21" s="484"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A22" s="475"/>
+      <c r="Q21" s="569"/>
+      <c r="R21" s="555"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A22" s="568"/>
       <c r="B22" s="388" t="s">
         <v>693</v>
       </c>
@@ -11128,8 +11149,8 @@
       <c r="D22" s="289">
         <v>75</v>
       </c>
-      <c r="F22" s="489"/>
-      <c r="G22" s="486"/>
+      <c r="F22" s="560"/>
+      <c r="G22" s="557"/>
       <c r="H22" s="202">
         <v>96</v>
       </c>
@@ -11149,12 +11170,12 @@
       <c r="N22" s="190"/>
       <c r="O22" s="190"/>
       <c r="P22" s="151"/>
-      <c r="Q22" s="476"/>
-      <c r="R22" s="484"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="F23" s="489"/>
-      <c r="G23" s="486"/>
+      <c r="Q22" s="569"/>
+      <c r="R22" s="555"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="F23" s="560"/>
+      <c r="G23" s="557"/>
       <c r="H23" s="202">
         <v>106</v>
       </c>
@@ -11174,12 +11195,12 @@
       <c r="N23" s="190"/>
       <c r="O23" s="190"/>
       <c r="P23" s="151"/>
-      <c r="Q23" s="476"/>
-      <c r="R23" s="484"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="F24" s="489"/>
-      <c r="G24" s="486"/>
+      <c r="Q23" s="569"/>
+      <c r="R23" s="555"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="F24" s="560"/>
+      <c r="G24" s="557"/>
       <c r="H24" s="202">
         <v>116</v>
       </c>
@@ -11199,12 +11220,12 @@
       <c r="N24" s="190"/>
       <c r="O24" s="190"/>
       <c r="P24" s="151"/>
-      <c r="Q24" s="476"/>
-      <c r="R24" s="484"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="F25" s="489"/>
-      <c r="G25" s="486"/>
+      <c r="Q24" s="569"/>
+      <c r="R24" s="555"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="F25" s="560"/>
+      <c r="G25" s="557"/>
       <c r="H25" s="202">
         <v>126</v>
       </c>
@@ -11224,12 +11245,12 @@
       <c r="N25" s="190"/>
       <c r="O25" s="190"/>
       <c r="P25" s="151"/>
-      <c r="Q25" s="476"/>
-      <c r="R25" s="484"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="F26" s="489"/>
-      <c r="G26" s="486"/>
+      <c r="Q25" s="569"/>
+      <c r="R25" s="555"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="F26" s="560"/>
+      <c r="G26" s="557"/>
       <c r="H26" s="202">
         <v>136</v>
       </c>
@@ -11249,12 +11270,12 @@
       <c r="N26" s="190"/>
       <c r="O26" s="190"/>
       <c r="P26" s="151"/>
-      <c r="Q26" s="476"/>
-      <c r="R26" s="484"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="F27" s="489"/>
-      <c r="G27" s="486"/>
+      <c r="Q26" s="569"/>
+      <c r="R26" s="555"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="F27" s="560"/>
+      <c r="G27" s="557"/>
       <c r="H27" s="202">
         <v>137</v>
       </c>
@@ -11264,20 +11285,20 @@
       <c r="J27" s="250" t="s">
         <v>691</v>
       </c>
-      <c r="K27" s="478" t="s">
+      <c r="K27" s="563" t="s">
         <v>690</v>
       </c>
-      <c r="L27" s="479"/>
-      <c r="M27" s="479"/>
-      <c r="N27" s="479"/>
-      <c r="O27" s="479"/>
-      <c r="P27" s="480"/>
-      <c r="Q27" s="476"/>
-      <c r="R27" s="484"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F28" s="490"/>
-      <c r="G28" s="487"/>
+      <c r="L27" s="564"/>
+      <c r="M27" s="564"/>
+      <c r="N27" s="564"/>
+      <c r="O27" s="564"/>
+      <c r="P27" s="565"/>
+      <c r="Q27" s="569"/>
+      <c r="R27" s="555"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+      <c r="F28" s="561"/>
+      <c r="G28" s="558"/>
       <c r="H28" s="386">
         <v>146</v>
       </c>
@@ -11301,16 +11322,11 @@
       </c>
       <c r="O28" s="382"/>
       <c r="P28" s="381"/>
-      <c r="Q28" s="477"/>
-      <c r="R28" s="485"/>
+      <c r="Q28" s="570"/>
+      <c r="R28" s="556"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R14:R28"/>
-    <mergeCell ref="G14:G28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K27:P27"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="C2:C10"/>
     <mergeCell ref="D2:D10"/>
@@ -11321,6 +11337,11 @@
     <mergeCell ref="K16:P16"/>
     <mergeCell ref="K17:P17"/>
     <mergeCell ref="K18:P18"/>
+    <mergeCell ref="R14:R28"/>
+    <mergeCell ref="G14:G28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K27:P27"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11332,77 +11353,77 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A1" s="436" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A1" s="500" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
-      <c r="H1" s="436"/>
-      <c r="I1" s="436"/>
-      <c r="J1" s="436"/>
-      <c r="K1" s="436"/>
-      <c r="L1" s="436"/>
-      <c r="M1" s="436"/>
-      <c r="N1" s="436"/>
-      <c r="O1" s="436"/>
-      <c r="P1" s="436"/>
-      <c r="Q1" s="436"/>
-      <c r="R1" s="436"/>
-    </row>
-    <row r="2" spans="1:18" ht="42.75" customHeight="1">
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="500"/>
+      <c r="H1" s="500"/>
+      <c r="I1" s="500"/>
+      <c r="J1" s="500"/>
+      <c r="K1" s="500"/>
+      <c r="L1" s="500"/>
+      <c r="M1" s="500"/>
+      <c r="N1" s="500"/>
+      <c r="O1" s="500"/>
+      <c r="P1" s="500"/>
+      <c r="Q1" s="500"/>
+      <c r="R1" s="500"/>
+    </row>
+    <row r="2" spans="1:20" ht="42.75" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="447" t="s">
+      <c r="B2" s="506" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="449"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="508"/>
       <c r="E2" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="450" t="s">
+      <c r="F2" s="509" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="451"/>
-      <c r="H2" s="439" t="s">
+      <c r="G2" s="510"/>
+      <c r="H2" s="503" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="440"/>
-      <c r="J2" s="447" t="s">
+      <c r="I2" s="504"/>
+      <c r="J2" s="506" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="449"/>
-      <c r="L2" s="450" t="s">
+      <c r="K2" s="508"/>
+      <c r="L2" s="509" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="451"/>
-      <c r="N2" s="447" t="s">
+      <c r="M2" s="510"/>
+      <c r="N2" s="506" t="s">
         <v>198</v>
       </c>
-      <c r="O2" s="449"/>
-      <c r="P2" s="447" t="s">
+      <c r="O2" s="508"/>
+      <c r="P2" s="506" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="449"/>
+      <c r="Q2" s="508"/>
       <c r="R2" s="66" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="42.75" customHeight="1">
+    <row r="3" spans="1:20" ht="42.75" customHeight="1">
       <c r="A3" s="67" t="s">
         <v>79</v>
       </c>
@@ -11457,8 +11478,11 @@
       <c r="R3" s="73" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="T3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="67" t="s">
         <v>104</v>
       </c>
@@ -11513,8 +11537,11 @@
       <c r="R4" s="55">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="T4" s="620" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="67">
         <v>2</v>
       </c>
@@ -11570,7 +11597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="A6" s="67">
         <v>3</v>
       </c>
@@ -11626,7 +11653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7" s="67">
         <v>4</v>
       </c>
@@ -11682,7 +11709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:20">
       <c r="A8" s="67">
         <v>5</v>
       </c>
@@ -11738,7 +11765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:20">
       <c r="A9" s="67">
         <v>6</v>
       </c>
@@ -11794,7 +11821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:20">
       <c r="A10" s="67">
         <v>7</v>
       </c>
@@ -11850,7 +11877,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:20">
       <c r="A11" s="67">
         <v>8</v>
       </c>
@@ -11906,7 +11933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:20">
       <c r="A12" s="67">
         <v>9</v>
       </c>
@@ -11962,7 +11989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="A13" s="79">
         <v>10</v>
       </c>
@@ -12018,7 +12045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:20">
       <c r="A14" s="84">
         <v>11</v>
       </c>
@@ -12074,7 +12101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:20">
       <c r="A15" s="67">
         <v>12</v>
       </c>
@@ -12130,7 +12157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:20">
       <c r="A16" s="67">
         <v>13</v>
       </c>
@@ -12307,38 +12334,38 @@
       <c r="A20" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="492">
+      <c r="B20" s="574">
         <v>83.33</v>
       </c>
-      <c r="C20" s="492"/>
-      <c r="D20" s="492"/>
+      <c r="C20" s="574"/>
+      <c r="D20" s="574"/>
       <c r="E20" s="115">
         <v>78</v>
       </c>
-      <c r="F20" s="492">
+      <c r="F20" s="574">
         <v>88</v>
       </c>
-      <c r="G20" s="492"/>
-      <c r="H20" s="492">
+      <c r="G20" s="574"/>
+      <c r="H20" s="574">
         <v>86</v>
       </c>
-      <c r="I20" s="492"/>
-      <c r="J20" s="492">
+      <c r="I20" s="574"/>
+      <c r="J20" s="574">
         <v>85.5</v>
       </c>
-      <c r="K20" s="492"/>
-      <c r="L20" s="492">
+      <c r="K20" s="574"/>
+      <c r="L20" s="574">
         <v>81.5</v>
       </c>
-      <c r="M20" s="492"/>
-      <c r="N20" s="492">
+      <c r="M20" s="574"/>
+      <c r="N20" s="574">
         <v>83.5</v>
       </c>
-      <c r="O20" s="492"/>
-      <c r="P20" s="492">
+      <c r="O20" s="574"/>
+      <c r="P20" s="574">
         <v>76.5</v>
       </c>
-      <c r="Q20" s="492"/>
+      <c r="Q20" s="574"/>
       <c r="R20" s="116">
         <v>82</v>
       </c>
@@ -12347,38 +12374,38 @@
       <c r="A21" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="493" t="s">
+      <c r="B21" s="575" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="493"/>
-      <c r="D21" s="493"/>
+      <c r="C21" s="575"/>
+      <c r="D21" s="575"/>
       <c r="E21" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="F21" s="494" t="s">
+      <c r="F21" s="576" t="s">
         <v>211</v>
       </c>
-      <c r="G21" s="494"/>
-      <c r="H21" s="495" t="s">
+      <c r="G21" s="576"/>
+      <c r="H21" s="577" t="s">
         <v>212</v>
       </c>
-      <c r="I21" s="495"/>
-      <c r="J21" s="496" t="s">
+      <c r="I21" s="577"/>
+      <c r="J21" s="578" t="s">
         <v>213</v>
       </c>
-      <c r="K21" s="496"/>
-      <c r="L21" s="493" t="s">
+      <c r="K21" s="578"/>
+      <c r="L21" s="575" t="s">
         <v>214</v>
       </c>
-      <c r="M21" s="493"/>
-      <c r="N21" s="493" t="s">
+      <c r="M21" s="575"/>
+      <c r="N21" s="575" t="s">
         <v>215</v>
       </c>
-      <c r="O21" s="493"/>
-      <c r="P21" s="493" t="s">
+      <c r="O21" s="575"/>
+      <c r="P21" s="575" t="s">
         <v>216</v>
       </c>
-      <c r="Q21" s="493"/>
+      <c r="Q21" s="575"/>
       <c r="R21" s="118" t="s">
         <v>217</v>
       </c>
@@ -12410,14 +12437,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:G21"/>
@@ -12432,6 +12451,14 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12453,63 +12480,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A1" s="436" t="s">
+      <c r="A1" s="500" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
-      <c r="H1" s="436"/>
-      <c r="I1" s="436"/>
-      <c r="J1" s="436"/>
-      <c r="K1" s="436"/>
-      <c r="L1" s="436"/>
-      <c r="M1" s="436"/>
-      <c r="N1" s="436"/>
-      <c r="O1" s="436"/>
-      <c r="P1" s="436"/>
-      <c r="Q1" s="436"/>
-      <c r="R1" s="436"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="500"/>
+      <c r="H1" s="500"/>
+      <c r="I1" s="500"/>
+      <c r="J1" s="500"/>
+      <c r="K1" s="500"/>
+      <c r="L1" s="500"/>
+      <c r="M1" s="500"/>
+      <c r="N1" s="500"/>
+      <c r="O1" s="500"/>
+      <c r="P1" s="500"/>
+      <c r="Q1" s="500"/>
+      <c r="R1" s="500"/>
     </row>
     <row r="2" spans="1:18" ht="42.75" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="447" t="s">
+      <c r="B2" s="506" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="449"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="508"/>
       <c r="E2" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="450" t="s">
+      <c r="F2" s="509" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="451"/>
-      <c r="H2" s="439" t="s">
+      <c r="G2" s="510"/>
+      <c r="H2" s="503" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="440"/>
-      <c r="J2" s="447" t="s">
+      <c r="I2" s="504"/>
+      <c r="J2" s="506" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="449"/>
-      <c r="L2" s="450" t="s">
+      <c r="K2" s="508"/>
+      <c r="L2" s="509" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="451"/>
-      <c r="N2" s="447" t="s">
+      <c r="M2" s="510"/>
+      <c r="N2" s="506" t="s">
         <v>224</v>
       </c>
-      <c r="O2" s="449"/>
-      <c r="P2" s="447" t="s">
+      <c r="O2" s="508"/>
+      <c r="P2" s="506" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="449"/>
+      <c r="Q2" s="508"/>
       <c r="R2" s="66" t="s">
         <v>225</v>
       </c>
@@ -13419,38 +13446,38 @@
       <c r="A20" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="492">
+      <c r="B20" s="574">
         <v>78.33</v>
       </c>
-      <c r="C20" s="492"/>
-      <c r="D20" s="492"/>
+      <c r="C20" s="574"/>
+      <c r="D20" s="574"/>
       <c r="E20" s="115">
         <v>82</v>
       </c>
-      <c r="F20" s="492">
+      <c r="F20" s="574">
         <v>72.5</v>
       </c>
-      <c r="G20" s="492"/>
-      <c r="H20" s="492">
+      <c r="G20" s="574"/>
+      <c r="H20" s="574">
         <v>88</v>
       </c>
-      <c r="I20" s="492"/>
-      <c r="J20" s="492">
+      <c r="I20" s="574"/>
+      <c r="J20" s="574">
         <v>94.5</v>
       </c>
-      <c r="K20" s="492"/>
-      <c r="L20" s="492">
+      <c r="K20" s="574"/>
+      <c r="L20" s="574">
         <v>76</v>
       </c>
-      <c r="M20" s="492"/>
-      <c r="N20" s="492">
+      <c r="M20" s="574"/>
+      <c r="N20" s="574">
         <v>78</v>
       </c>
-      <c r="O20" s="492"/>
-      <c r="P20" s="492">
+      <c r="O20" s="574"/>
+      <c r="P20" s="574">
         <v>79.5</v>
       </c>
-      <c r="Q20" s="492"/>
+      <c r="Q20" s="574"/>
       <c r="R20" s="116">
         <v>86</v>
       </c>
@@ -13459,38 +13486,38 @@
       <c r="A21" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="497" t="s">
+      <c r="B21" s="579" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="497"/>
-      <c r="D21" s="497"/>
+      <c r="C21" s="579"/>
+      <c r="D21" s="579"/>
       <c r="E21" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="496" t="s">
+      <c r="F21" s="578" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="496"/>
-      <c r="H21" s="495" t="s">
+      <c r="G21" s="578"/>
+      <c r="H21" s="577" t="s">
         <v>233</v>
       </c>
-      <c r="I21" s="495"/>
-      <c r="J21" s="494" t="s">
+      <c r="I21" s="577"/>
+      <c r="J21" s="576" t="s">
         <v>234</v>
       </c>
-      <c r="K21" s="494"/>
-      <c r="L21" s="497" t="s">
+      <c r="K21" s="576"/>
+      <c r="L21" s="579" t="s">
         <v>235</v>
       </c>
-      <c r="M21" s="497"/>
-      <c r="N21" s="497" t="s">
+      <c r="M21" s="579"/>
+      <c r="N21" s="579" t="s">
         <v>236</v>
       </c>
-      <c r="O21" s="497"/>
-      <c r="P21" s="497" t="s">
+      <c r="O21" s="579"/>
+      <c r="P21" s="579" t="s">
         <v>237</v>
       </c>
-      <c r="Q21" s="497"/>
+      <c r="Q21" s="579"/>
       <c r="R21" s="135" t="s">
         <v>238</v>
       </c>
@@ -13522,14 +13549,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:G21"/>
@@ -13544,6 +13563,14 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13565,63 +13592,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A1" s="436" t="s">
+      <c r="A1" s="500" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
-      <c r="H1" s="436"/>
-      <c r="I1" s="436"/>
-      <c r="J1" s="436"/>
-      <c r="K1" s="436"/>
-      <c r="L1" s="436"/>
-      <c r="M1" s="436"/>
-      <c r="N1" s="436"/>
-      <c r="O1" s="436"/>
-      <c r="P1" s="436"/>
-      <c r="Q1" s="436"/>
-      <c r="R1" s="436"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="500"/>
+      <c r="H1" s="500"/>
+      <c r="I1" s="500"/>
+      <c r="J1" s="500"/>
+      <c r="K1" s="500"/>
+      <c r="L1" s="500"/>
+      <c r="M1" s="500"/>
+      <c r="N1" s="500"/>
+      <c r="O1" s="500"/>
+      <c r="P1" s="500"/>
+      <c r="Q1" s="500"/>
+      <c r="R1" s="500"/>
     </row>
     <row r="2" spans="1:18" ht="42.75" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="447" t="s">
+      <c r="B2" s="506" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="449"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="508"/>
       <c r="E2" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="450" t="s">
+      <c r="F2" s="509" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="451"/>
-      <c r="H2" s="439" t="s">
+      <c r="G2" s="510"/>
+      <c r="H2" s="503" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="440"/>
-      <c r="J2" s="447" t="s">
+      <c r="I2" s="504"/>
+      <c r="J2" s="506" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="449"/>
-      <c r="L2" s="450" t="s">
+      <c r="K2" s="508"/>
+      <c r="L2" s="509" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="451"/>
-      <c r="N2" s="447" t="s">
+      <c r="M2" s="510"/>
+      <c r="N2" s="506" t="s">
         <v>198</v>
       </c>
-      <c r="O2" s="449"/>
-      <c r="P2" s="447" t="s">
+      <c r="O2" s="508"/>
+      <c r="P2" s="506" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="449"/>
+      <c r="Q2" s="508"/>
       <c r="R2" s="66" t="s">
         <v>243</v>
       </c>
@@ -14531,38 +14558,38 @@
       <c r="A20" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="492">
+      <c r="B20" s="574">
         <v>78.33</v>
       </c>
-      <c r="C20" s="492"/>
-      <c r="D20" s="492"/>
+      <c r="C20" s="574"/>
+      <c r="D20" s="574"/>
       <c r="E20" s="115">
         <v>82</v>
       </c>
-      <c r="F20" s="492">
+      <c r="F20" s="574">
         <v>54.5</v>
       </c>
-      <c r="G20" s="492"/>
-      <c r="H20" s="492">
+      <c r="G20" s="574"/>
+      <c r="H20" s="574">
         <v>88</v>
       </c>
-      <c r="I20" s="492"/>
-      <c r="J20" s="492">
+      <c r="I20" s="574"/>
+      <c r="J20" s="574">
         <v>94.5</v>
       </c>
-      <c r="K20" s="492"/>
-      <c r="L20" s="492">
+      <c r="K20" s="574"/>
+      <c r="L20" s="574">
         <v>76</v>
       </c>
-      <c r="M20" s="492"/>
-      <c r="N20" s="492">
+      <c r="M20" s="574"/>
+      <c r="N20" s="574">
         <v>78</v>
       </c>
-      <c r="O20" s="492"/>
-      <c r="P20" s="492">
+      <c r="O20" s="574"/>
+      <c r="P20" s="574">
         <v>79.5</v>
       </c>
-      <c r="Q20" s="492"/>
+      <c r="Q20" s="574"/>
       <c r="R20" s="116">
         <v>86</v>
       </c>
@@ -14571,38 +14598,38 @@
       <c r="A21" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="497" t="s">
+      <c r="B21" s="579" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="497"/>
-      <c r="D21" s="497"/>
+      <c r="C21" s="579"/>
+      <c r="D21" s="579"/>
       <c r="E21" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="494" t="s">
+      <c r="F21" s="576" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="494"/>
-      <c r="H21" s="498" t="s">
+      <c r="G21" s="576"/>
+      <c r="H21" s="580" t="s">
         <v>212</v>
       </c>
-      <c r="I21" s="498"/>
-      <c r="J21" s="498" t="s">
+      <c r="I21" s="580"/>
+      <c r="J21" s="580" t="s">
         <v>251</v>
       </c>
-      <c r="K21" s="498"/>
-      <c r="L21" s="495" t="s">
+      <c r="K21" s="580"/>
+      <c r="L21" s="577" t="s">
         <v>235</v>
       </c>
-      <c r="M21" s="495"/>
-      <c r="N21" s="496" t="s">
+      <c r="M21" s="577"/>
+      <c r="N21" s="578" t="s">
         <v>252</v>
       </c>
-      <c r="O21" s="496"/>
-      <c r="P21" s="497" t="s">
+      <c r="O21" s="578"/>
+      <c r="P21" s="579" t="s">
         <v>237</v>
       </c>
-      <c r="Q21" s="497"/>
+      <c r="Q21" s="579"/>
       <c r="R21" s="135" t="s">
         <v>253</v>
       </c>
@@ -14634,14 +14661,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:G21"/>
@@ -14656,6 +14675,14 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14681,19 +14708,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="499" t="s">
+      <c r="A1" s="581" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
-      <c r="F1" s="499"/>
-      <c r="G1" s="499"/>
-      <c r="H1" s="499"/>
-      <c r="I1" s="499"/>
-      <c r="J1" s="499"/>
-      <c r="K1" s="499"/>
+      <c r="B1" s="581"/>
+      <c r="C1" s="581"/>
+      <c r="D1" s="581"/>
+      <c r="E1" s="581"/>
+      <c r="F1" s="581"/>
+      <c r="G1" s="581"/>
+      <c r="H1" s="581"/>
+      <c r="I1" s="581"/>
+      <c r="J1" s="581"/>
+      <c r="K1" s="581"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
       <c r="A2" s="186" t="s">
@@ -15481,8 +15508,8 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15510,82 +15537,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30.75" customHeight="1">
-      <c r="A1" s="500" t="s">
+      <c r="A1" s="582" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
-      <c r="F1" s="501"/>
-      <c r="G1" s="501"/>
-      <c r="H1" s="501"/>
-      <c r="I1" s="501"/>
-      <c r="J1" s="501"/>
-      <c r="K1" s="501"/>
-      <c r="L1" s="501"/>
-      <c r="M1" s="501"/>
-      <c r="N1" s="501"/>
-      <c r="O1" s="501"/>
-      <c r="P1" s="501"/>
-      <c r="Q1" s="501"/>
-      <c r="R1" s="501"/>
-      <c r="S1" s="501"/>
-      <c r="T1" s="501"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="501"/>
-      <c r="W1" s="501"/>
-      <c r="X1" s="501"/>
-      <c r="Y1" s="501"/>
+      <c r="B1" s="583"/>
+      <c r="C1" s="583"/>
+      <c r="D1" s="583"/>
+      <c r="E1" s="583"/>
+      <c r="F1" s="583"/>
+      <c r="G1" s="583"/>
+      <c r="H1" s="583"/>
+      <c r="I1" s="583"/>
+      <c r="J1" s="583"/>
+      <c r="K1" s="583"/>
+      <c r="L1" s="583"/>
+      <c r="M1" s="583"/>
+      <c r="N1" s="583"/>
+      <c r="O1" s="583"/>
+      <c r="P1" s="583"/>
+      <c r="Q1" s="583"/>
+      <c r="R1" s="583"/>
+      <c r="S1" s="583"/>
+      <c r="T1" s="583"/>
+      <c r="U1" s="583"/>
+      <c r="V1" s="583"/>
+      <c r="W1" s="583"/>
+      <c r="X1" s="583"/>
+      <c r="Y1" s="583"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
       <c r="A2" s="295"/>
-      <c r="B2" s="515" t="s">
+      <c r="B2" s="597" t="s">
         <v>635</v>
       </c>
-      <c r="C2" s="515"/>
-      <c r="D2" s="515"/>
-      <c r="E2" s="515"/>
-      <c r="F2" s="515"/>
-      <c r="G2" s="515"/>
-      <c r="H2" s="515"/>
-      <c r="I2" s="515"/>
-      <c r="J2" s="515"/>
-      <c r="K2" s="515"/>
-      <c r="L2" s="515"/>
-      <c r="M2" s="516" t="s">
+      <c r="C2" s="597"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="597"/>
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="597"/>
+      <c r="J2" s="597"/>
+      <c r="K2" s="597"/>
+      <c r="L2" s="597"/>
+      <c r="M2" s="598" t="s">
         <v>633</v>
       </c>
-      <c r="N2" s="516"/>
-      <c r="O2" s="516"/>
-      <c r="P2" s="516"/>
-      <c r="Q2" s="516"/>
-      <c r="R2" s="516"/>
-      <c r="S2" s="516"/>
-      <c r="T2" s="516"/>
-      <c r="U2" s="504" t="s">
+      <c r="N2" s="598"/>
+      <c r="O2" s="598"/>
+      <c r="P2" s="598"/>
+      <c r="Q2" s="598"/>
+      <c r="R2" s="598"/>
+      <c r="S2" s="598"/>
+      <c r="T2" s="598"/>
+      <c r="U2" s="586" t="s">
         <v>636</v>
       </c>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
+      <c r="V2" s="586"/>
+      <c r="W2" s="586"/>
+      <c r="X2" s="586"/>
+      <c r="Y2" s="586"/>
     </row>
     <row r="3" spans="1:25" s="54" customFormat="1" ht="49.5" customHeight="1">
       <c r="A3" s="241" t="s">
         <v>431</v>
       </c>
-      <c r="B3" s="505" t="s">
+      <c r="B3" s="587" t="s">
         <v>631</v>
       </c>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="502" t="s">
+      <c r="C3" s="588"/>
+      <c r="D3" s="588"/>
+      <c r="E3" s="588"/>
+      <c r="F3" s="589"/>
+      <c r="G3" s="584" t="s">
         <v>558</v>
       </c>
-      <c r="H3" s="503"/>
+      <c r="H3" s="585"/>
       <c r="I3" s="237" t="s">
         <v>614</v>
       </c>
@@ -15687,7 +15714,7 @@
         <v>384</v>
       </c>
       <c r="R4" s="249"/>
-      <c r="S4" s="520" t="s">
+      <c r="S4" s="602" t="s">
         <v>610</v>
       </c>
       <c r="T4" s="240">
@@ -15697,14 +15724,14 @@
       <c r="U4" s="271">
         <v>67</v>
       </c>
-      <c r="V4" s="521" t="s">
+      <c r="V4" s="603" t="s">
         <v>615</v>
       </c>
       <c r="W4" s="249">
         <f>SUM(L4+N4+P4+R4)-U4</f>
         <v>7.5</v>
       </c>
-      <c r="X4" s="513" t="s">
+      <c r="X4" s="595" t="s">
         <v>612</v>
       </c>
       <c r="Y4" s="250" t="s">
@@ -15760,7 +15787,7 @@
         <v>384</v>
       </c>
       <c r="R5" s="249"/>
-      <c r="S5" s="520"/>
+      <c r="S5" s="602"/>
       <c r="T5" s="240">
         <f t="shared" ref="T5:T23" si="0">SUM(N5+P5+R5)</f>
         <v>125.5</v>
@@ -15768,12 +15795,12 @@
       <c r="U5" s="271">
         <v>133</v>
       </c>
-      <c r="V5" s="521"/>
+      <c r="V5" s="603"/>
       <c r="W5" s="249">
         <f t="shared" ref="W5:W24" si="1">SUM(L5+N5+P5+R5)-U5</f>
         <v>-7.5</v>
       </c>
-      <c r="X5" s="514"/>
+      <c r="X5" s="596"/>
       <c r="Y5" s="250" t="s">
         <v>329</v>
       </c>
@@ -15829,7 +15856,7 @@
       <c r="R6" s="249">
         <v>74.5</v>
       </c>
-      <c r="S6" s="520"/>
+      <c r="S6" s="602"/>
       <c r="T6" s="240">
         <f t="shared" si="0"/>
         <v>217.82999999999998</v>
@@ -15837,12 +15864,12 @@
       <c r="U6" s="271">
         <v>196</v>
       </c>
-      <c r="V6" s="521"/>
+      <c r="V6" s="603"/>
       <c r="W6" s="249">
         <f t="shared" si="1"/>
         <v>156.82999999999998</v>
       </c>
-      <c r="X6" s="514"/>
+      <c r="X6" s="596"/>
       <c r="Y6" s="250" t="s">
         <v>329</v>
       </c>
@@ -15900,7 +15927,7 @@
         <v>384</v>
       </c>
       <c r="R7" s="249"/>
-      <c r="S7" s="520"/>
+      <c r="S7" s="602"/>
       <c r="T7" s="240">
         <f t="shared" si="0"/>
         <v>142.32999999999998</v>
@@ -15908,12 +15935,12 @@
       <c r="U7" s="271">
         <v>132</v>
       </c>
-      <c r="V7" s="521"/>
+      <c r="V7" s="603"/>
       <c r="W7" s="249">
         <f t="shared" si="1"/>
         <v>10.329999999999984</v>
       </c>
-      <c r="X7" s="514"/>
+      <c r="X7" s="596"/>
       <c r="Y7" s="250" t="s">
         <v>329</v>
       </c>
@@ -15967,7 +15994,7 @@
         <v>384</v>
       </c>
       <c r="R8" s="249"/>
-      <c r="S8" s="520"/>
+      <c r="S8" s="602"/>
       <c r="T8" s="240">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -15975,12 +16002,12 @@
       <c r="U8" s="271">
         <v>67</v>
       </c>
-      <c r="V8" s="521"/>
+      <c r="V8" s="603"/>
       <c r="W8" s="249">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="X8" s="514"/>
+      <c r="X8" s="596"/>
       <c r="Y8" s="250" t="s">
         <v>329</v>
       </c>
@@ -16038,7 +16065,7 @@
         <v>384</v>
       </c>
       <c r="R9" s="249"/>
-      <c r="S9" s="520"/>
+      <c r="S9" s="602"/>
       <c r="T9" s="240">
         <f t="shared" si="0"/>
         <v>143.32999999999998</v>
@@ -16046,12 +16073,12 @@
       <c r="U9" s="271">
         <v>133</v>
       </c>
-      <c r="V9" s="521"/>
+      <c r="V9" s="603"/>
       <c r="W9" s="249">
         <f t="shared" si="1"/>
         <v>145.32999999999998</v>
       </c>
-      <c r="X9" s="514"/>
+      <c r="X9" s="596"/>
       <c r="Y9" s="250" t="s">
         <v>329</v>
       </c>
@@ -16107,7 +16134,7 @@
         <v>384</v>
       </c>
       <c r="R10" s="249"/>
-      <c r="S10" s="520"/>
+      <c r="S10" s="602"/>
       <c r="T10" s="240">
         <f t="shared" si="0"/>
         <v>74.5</v>
@@ -16115,12 +16142,12 @@
       <c r="U10" s="271">
         <v>64</v>
       </c>
-      <c r="V10" s="521"/>
+      <c r="V10" s="603"/>
       <c r="W10" s="249">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="X10" s="514"/>
+      <c r="X10" s="596"/>
       <c r="Y10" s="250" t="s">
         <v>329</v>
       </c>
@@ -16174,7 +16201,7 @@
         <v>384</v>
       </c>
       <c r="R11" s="249"/>
-      <c r="S11" s="520"/>
+      <c r="S11" s="602"/>
       <c r="T11" s="240">
         <f t="shared" si="0"/>
         <v>170.5</v>
@@ -16182,12 +16209,12 @@
       <c r="U11" s="271">
         <v>125</v>
       </c>
-      <c r="V11" s="521"/>
+      <c r="V11" s="603"/>
       <c r="W11" s="249">
         <f t="shared" si="1"/>
         <v>45.5</v>
       </c>
-      <c r="X11" s="514"/>
+      <c r="X11" s="596"/>
       <c r="Y11" s="250" t="s">
         <v>329</v>
       </c>
@@ -16243,7 +16270,7 @@
       <c r="R12" s="249">
         <v>56.5</v>
       </c>
-      <c r="S12" s="520"/>
+      <c r="S12" s="602"/>
       <c r="T12" s="240">
         <f t="shared" si="0"/>
         <v>199</v>
@@ -16251,12 +16278,12 @@
       <c r="U12" s="271">
         <v>195</v>
       </c>
-      <c r="V12" s="521"/>
+      <c r="V12" s="603"/>
       <c r="W12" s="249">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X12" s="514"/>
+      <c r="X12" s="596"/>
       <c r="Y12" s="250" t="s">
         <v>329</v>
       </c>
@@ -16310,7 +16337,7 @@
         <v>384</v>
       </c>
       <c r="R13" s="249"/>
-      <c r="S13" s="520"/>
+      <c r="S13" s="602"/>
       <c r="T13" s="240">
         <f t="shared" si="0"/>
         <v>125.5</v>
@@ -16318,12 +16345,12 @@
       <c r="U13" s="271">
         <v>133</v>
       </c>
-      <c r="V13" s="521"/>
+      <c r="V13" s="603"/>
       <c r="W13" s="249">
         <f t="shared" si="1"/>
         <v>127.5</v>
       </c>
-      <c r="X13" s="514"/>
+      <c r="X13" s="596"/>
       <c r="Y13" s="250" t="s">
         <v>329</v>
       </c>
@@ -16383,7 +16410,7 @@
       <c r="R14" s="249">
         <v>67</v>
       </c>
-      <c r="S14" s="520"/>
+      <c r="S14" s="602"/>
       <c r="T14" s="240">
         <f t="shared" si="0"/>
         <v>231</v>
@@ -16391,12 +16418,12 @@
       <c r="U14" s="271">
         <v>206</v>
       </c>
-      <c r="V14" s="521"/>
+      <c r="V14" s="603"/>
       <c r="W14" s="249">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="X14" s="514"/>
+      <c r="X14" s="596"/>
       <c r="Y14" s="250" t="s">
         <v>329</v>
       </c>
@@ -16448,7 +16475,7 @@
         <v>384</v>
       </c>
       <c r="R15" s="249"/>
-      <c r="S15" s="520"/>
+      <c r="S15" s="602"/>
       <c r="T15" s="240">
         <f t="shared" si="0"/>
         <v>74.5</v>
@@ -16456,12 +16483,12 @@
       <c r="U15" s="271">
         <v>63</v>
       </c>
-      <c r="V15" s="521"/>
+      <c r="V15" s="603"/>
       <c r="W15" s="249">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="X15" s="514"/>
+      <c r="X15" s="596"/>
       <c r="Y15" s="250" t="s">
         <v>329</v>
       </c>
@@ -16515,7 +16542,7 @@
         <v>384</v>
       </c>
       <c r="R16" s="249"/>
-      <c r="S16" s="520"/>
+      <c r="S16" s="602"/>
       <c r="T16" s="240">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -16523,12 +16550,12 @@
       <c r="U16" s="271">
         <v>133</v>
       </c>
-      <c r="V16" s="521"/>
+      <c r="V16" s="603"/>
       <c r="W16" s="249">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="X16" s="514"/>
+      <c r="X16" s="596"/>
       <c r="Y16" s="250" t="s">
         <v>329</v>
       </c>
@@ -16582,7 +16609,7 @@
         <v>384</v>
       </c>
       <c r="R17" s="258"/>
-      <c r="S17" s="520"/>
+      <c r="S17" s="602"/>
       <c r="T17" s="240">
         <f t="shared" si="0"/>
         <v>96</v>
@@ -16590,12 +16617,12 @@
       <c r="U17" s="271">
         <v>62</v>
       </c>
-      <c r="V17" s="521"/>
+      <c r="V17" s="603"/>
       <c r="W17" s="258">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="X17" s="514"/>
+      <c r="X17" s="596"/>
       <c r="Y17" s="260" t="s">
         <v>555</v>
       </c>
@@ -16651,7 +16678,7 @@
         <v>384</v>
       </c>
       <c r="R18" s="249"/>
-      <c r="S18" s="520"/>
+      <c r="S18" s="602"/>
       <c r="T18" s="240">
         <f t="shared" si="0"/>
         <v>125.5</v>
@@ -16659,12 +16686,12 @@
       <c r="U18" s="271">
         <v>133</v>
       </c>
-      <c r="V18" s="521"/>
+      <c r="V18" s="603"/>
       <c r="W18" s="249">
         <f t="shared" si="1"/>
         <v>127.5</v>
       </c>
-      <c r="X18" s="514"/>
+      <c r="X18" s="596"/>
       <c r="Y18" s="250" t="s">
         <v>329</v>
       </c>
@@ -16722,7 +16749,7 @@
         <v>384</v>
       </c>
       <c r="R19" s="249"/>
-      <c r="S19" s="520"/>
+      <c r="S19" s="602"/>
       <c r="T19" s="240">
         <f t="shared" si="0"/>
         <v>142.82999999999998</v>
@@ -16730,12 +16757,12 @@
       <c r="U19" s="271">
         <v>131</v>
       </c>
-      <c r="V19" s="521"/>
+      <c r="V19" s="603"/>
       <c r="W19" s="249">
         <f t="shared" si="1"/>
         <v>11.829999999999984</v>
       </c>
-      <c r="X19" s="514"/>
+      <c r="X19" s="596"/>
       <c r="Y19" s="250" t="s">
         <v>329</v>
       </c>
@@ -16791,7 +16818,7 @@
         <v>384</v>
       </c>
       <c r="R20" s="249"/>
-      <c r="S20" s="520"/>
+      <c r="S20" s="602"/>
       <c r="T20" s="240">
         <f t="shared" si="0"/>
         <v>131.5</v>
@@ -16799,12 +16826,12 @@
       <c r="U20" s="271">
         <v>126</v>
       </c>
-      <c r="V20" s="521"/>
+      <c r="V20" s="603"/>
       <c r="W20" s="249">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="X20" s="514"/>
+      <c r="X20" s="596"/>
       <c r="Y20" s="250" t="s">
         <v>329</v>
       </c>
@@ -16856,7 +16883,7 @@
         <v>384</v>
       </c>
       <c r="R21" s="249"/>
-      <c r="S21" s="520"/>
+      <c r="S21" s="602"/>
       <c r="T21" s="240">
         <f t="shared" si="0"/>
         <v>125.5</v>
@@ -16864,12 +16891,12 @@
       <c r="U21" s="271">
         <v>133</v>
       </c>
-      <c r="V21" s="521"/>
+      <c r="V21" s="603"/>
       <c r="W21" s="249">
         <f t="shared" si="1"/>
         <v>127.5</v>
       </c>
-      <c r="X21" s="514"/>
+      <c r="X21" s="596"/>
       <c r="Y21" s="250" t="s">
         <v>329</v>
       </c>
@@ -16923,7 +16950,7 @@
         <v>384</v>
       </c>
       <c r="R22" s="249"/>
-      <c r="S22" s="520"/>
+      <c r="S22" s="602"/>
       <c r="T22" s="240">
         <f t="shared" si="0"/>
         <v>134.5</v>
@@ -16931,12 +16958,12 @@
       <c r="U22" s="271">
         <v>131</v>
       </c>
-      <c r="V22" s="521"/>
+      <c r="V22" s="603"/>
       <c r="W22" s="249">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="X22" s="514"/>
+      <c r="X22" s="596"/>
       <c r="Y22" s="250" t="s">
         <v>329</v>
       </c>
@@ -16992,7 +17019,7 @@
         <v>384</v>
       </c>
       <c r="R23" s="249"/>
-      <c r="S23" s="520"/>
+      <c r="S23" s="602"/>
       <c r="T23" s="240">
         <f t="shared" si="0"/>
         <v>140.5</v>
@@ -17000,12 +17027,12 @@
       <c r="U23" s="271">
         <v>133</v>
       </c>
-      <c r="V23" s="521"/>
+      <c r="V23" s="603"/>
       <c r="W23" s="249">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="X23" s="514"/>
+      <c r="X23" s="596"/>
       <c r="Y23" s="250" t="s">
         <v>329</v>
       </c>
@@ -17059,7 +17086,7 @@
         <v>384</v>
       </c>
       <c r="R24" s="249"/>
-      <c r="S24" s="520"/>
+      <c r="S24" s="602"/>
       <c r="T24" s="240">
         <f>SUM(N24+P24+R24)</f>
         <v>125.5</v>
@@ -17067,12 +17094,12 @@
       <c r="U24" s="271">
         <v>133</v>
       </c>
-      <c r="V24" s="521"/>
+      <c r="V24" s="603"/>
       <c r="W24" s="249">
         <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
-      <c r="X24" s="514"/>
+      <c r="X24" s="596"/>
       <c r="Y24" s="250" t="s">
         <v>329</v>
       </c>
@@ -17081,38 +17108,38 @@
       <c r="A25" s="261" t="s">
         <v>554</v>
       </c>
-      <c r="B25" s="508" t="s">
+      <c r="B25" s="590" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="509"/>
-      <c r="D25" s="509"/>
-      <c r="E25" s="509"/>
-      <c r="F25" s="509"/>
-      <c r="G25" s="509"/>
-      <c r="H25" s="509"/>
-      <c r="I25" s="509"/>
-      <c r="J25" s="509"/>
-      <c r="K25" s="509"/>
-      <c r="L25" s="510"/>
-      <c r="M25" s="517" t="s">
+      <c r="C25" s="591"/>
+      <c r="D25" s="591"/>
+      <c r="E25" s="591"/>
+      <c r="F25" s="591"/>
+      <c r="G25" s="591"/>
+      <c r="H25" s="591"/>
+      <c r="I25" s="591"/>
+      <c r="J25" s="591"/>
+      <c r="K25" s="591"/>
+      <c r="L25" s="592"/>
+      <c r="M25" s="599" t="s">
         <v>634</v>
       </c>
-      <c r="N25" s="518"/>
-      <c r="O25" s="518"/>
-      <c r="P25" s="518"/>
-      <c r="Q25" s="518"/>
-      <c r="R25" s="518"/>
-      <c r="S25" s="518"/>
-      <c r="T25" s="519"/>
+      <c r="N25" s="600"/>
+      <c r="O25" s="600"/>
+      <c r="P25" s="600"/>
+      <c r="Q25" s="600"/>
+      <c r="R25" s="600"/>
+      <c r="S25" s="600"/>
+      <c r="T25" s="601"/>
       <c r="U25" s="272" t="s">
         <v>382</v>
       </c>
       <c r="V25" s="261"/>
-      <c r="W25" s="511" t="s">
+      <c r="W25" s="593" t="s">
         <v>637</v>
       </c>
-      <c r="X25" s="511"/>
-      <c r="Y25" s="512"/>
+      <c r="X25" s="593"/>
+      <c r="Y25" s="594"/>
     </row>
     <row r="26" spans="1:25">
       <c r="P26" s="185"/>
@@ -17189,30 +17216,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="522" t="s">
+      <c r="A1" s="604" t="s">
         <v>560</v>
       </c>
-      <c r="B1" s="522"/>
-      <c r="C1" s="522"/>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
-      <c r="L1" s="522"/>
-      <c r="M1" s="522"/>
-      <c r="N1" s="522"/>
-      <c r="O1" s="522"/>
-      <c r="P1" s="522"/>
-      <c r="Q1" s="522"/>
-      <c r="R1" s="522"/>
-      <c r="S1" s="522"/>
-      <c r="T1" s="522"/>
-      <c r="U1" s="522"/>
-      <c r="V1" s="522"/>
+      <c r="B1" s="604"/>
+      <c r="C1" s="604"/>
+      <c r="D1" s="604"/>
+      <c r="E1" s="604"/>
+      <c r="F1" s="604"/>
+      <c r="G1" s="604"/>
+      <c r="H1" s="604"/>
+      <c r="I1" s="604"/>
+      <c r="J1" s="604"/>
+      <c r="K1" s="604"/>
+      <c r="L1" s="604"/>
+      <c r="M1" s="604"/>
+      <c r="N1" s="604"/>
+      <c r="O1" s="604"/>
+      <c r="P1" s="604"/>
+      <c r="Q1" s="604"/>
+      <c r="R1" s="604"/>
+      <c r="S1" s="604"/>
+      <c r="T1" s="604"/>
+      <c r="U1" s="604"/>
+      <c r="V1" s="604"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
       <c r="A2" s="183" t="s">
@@ -20028,7 +20055,7 @@
   </sheetPr>
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -20043,22 +20070,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B1" s="523" t="s">
+      <c r="B1" s="605" t="s">
         <v>607</v>
       </c>
-      <c r="C1" s="523"/>
-      <c r="D1" s="524"/>
-      <c r="E1" s="524"/>
-      <c r="F1" s="524"/>
-      <c r="G1" s="524"/>
-      <c r="H1" s="524"/>
-      <c r="I1" s="524"/>
-      <c r="J1" s="524"/>
-      <c r="K1" s="524"/>
-      <c r="L1" s="523"/>
-      <c r="M1" s="523"/>
-      <c r="N1" s="524"/>
-      <c r="O1" s="524"/>
+      <c r="C1" s="605"/>
+      <c r="D1" s="606"/>
+      <c r="E1" s="606"/>
+      <c r="F1" s="606"/>
+      <c r="G1" s="606"/>
+      <c r="H1" s="606"/>
+      <c r="I1" s="606"/>
+      <c r="J1" s="606"/>
+      <c r="K1" s="606"/>
+      <c r="L1" s="605"/>
+      <c r="M1" s="605"/>
+      <c r="N1" s="606"/>
+      <c r="O1" s="606"/>
     </row>
     <row r="2" spans="2:15" ht="24.95" customHeight="1">
       <c r="B2" s="206" t="s">
@@ -20067,13 +20094,13 @@
       <c r="C2" s="209" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="525" t="s">
+      <c r="D2" s="607" t="s">
         <v>608</v>
       </c>
-      <c r="E2" s="526"/>
-      <c r="F2" s="526"/>
-      <c r="G2" s="526"/>
-      <c r="H2" s="527"/>
+      <c r="E2" s="608"/>
+      <c r="F2" s="608"/>
+      <c r="G2" s="608"/>
+      <c r="H2" s="609"/>
       <c r="I2" s="211" t="s">
         <v>618</v>
       </c>
@@ -20164,7 +20191,7 @@
       <c r="L4" s="274">
         <v>0</v>
       </c>
-      <c r="M4" s="528" t="s">
+      <c r="M4" s="610" t="s">
         <v>623</v>
       </c>
       <c r="N4" s="279">
@@ -20205,7 +20232,7 @@
       <c r="L5" s="273">
         <v>33</v>
       </c>
-      <c r="M5" s="529"/>
+      <c r="M5" s="611"/>
       <c r="N5" s="279">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -20244,7 +20271,7 @@
       <c r="L6" s="274">
         <v>0</v>
       </c>
-      <c r="M6" s="529"/>
+      <c r="M6" s="611"/>
       <c r="N6" s="279">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -20283,7 +20310,7 @@
       <c r="L7" s="273">
         <v>33</v>
       </c>
-      <c r="M7" s="529"/>
+      <c r="M7" s="611"/>
       <c r="N7" s="279">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -20324,7 +20351,7 @@
       <c r="L8" s="273">
         <v>33</v>
       </c>
-      <c r="M8" s="529"/>
+      <c r="M8" s="611"/>
       <c r="N8" s="279">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -20365,7 +20392,7 @@
       <c r="L9" s="274">
         <v>0</v>
       </c>
-      <c r="M9" s="529"/>
+      <c r="M9" s="611"/>
       <c r="N9" s="279">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -20400,7 +20427,7 @@
       </c>
       <c r="K10" s="268"/>
       <c r="L10" s="275"/>
-      <c r="M10" s="529"/>
+      <c r="M10" s="611"/>
       <c r="N10" s="279">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -20439,7 +20466,7 @@
       <c r="L11" s="276">
         <v>28</v>
       </c>
-      <c r="M11" s="529"/>
+      <c r="M11" s="611"/>
       <c r="N11" s="279">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -20476,7 +20503,7 @@
       <c r="L12" s="274">
         <v>0</v>
       </c>
-      <c r="M12" s="529"/>
+      <c r="M12" s="611"/>
       <c r="N12" s="279">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -20513,7 +20540,7 @@
       <c r="L13" s="274">
         <v>0</v>
       </c>
-      <c r="M13" s="529"/>
+      <c r="M13" s="611"/>
       <c r="N13" s="279">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -20556,7 +20583,7 @@
       <c r="L14" s="273">
         <v>33</v>
       </c>
-      <c r="M14" s="529"/>
+      <c r="M14" s="611"/>
       <c r="N14" s="279">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -20595,7 +20622,7 @@
       <c r="L15" s="276">
         <v>28</v>
       </c>
-      <c r="M15" s="529"/>
+      <c r="M15" s="611"/>
       <c r="N15" s="279">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -20634,7 +20661,7 @@
       </c>
       <c r="K16" s="268"/>
       <c r="L16" s="275"/>
-      <c r="M16" s="529"/>
+      <c r="M16" s="611"/>
       <c r="N16" s="279">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -20673,7 +20700,7 @@
       <c r="L17" s="274">
         <v>0</v>
       </c>
-      <c r="M17" s="529"/>
+      <c r="M17" s="611"/>
       <c r="N17" s="279">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -20714,7 +20741,7 @@
       <c r="L18" s="273">
         <v>33</v>
       </c>
-      <c r="M18" s="529"/>
+      <c r="M18" s="611"/>
       <c r="N18" s="279">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -20751,7 +20778,7 @@
       <c r="L19" s="273">
         <v>33</v>
       </c>
-      <c r="M19" s="529"/>
+      <c r="M19" s="611"/>
       <c r="N19" s="279">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -20790,7 +20817,7 @@
       <c r="L20" s="274">
         <v>0</v>
       </c>
-      <c r="M20" s="529"/>
+      <c r="M20" s="611"/>
       <c r="N20" s="279">
         <f t="shared" si="0"/>
         <v>-13</v>
@@ -20827,7 +20854,7 @@
       <c r="L21" s="274">
         <v>0</v>
       </c>
-      <c r="M21" s="529"/>
+      <c r="M21" s="611"/>
       <c r="N21" s="279">
         <f t="shared" si="0"/>
         <v>-16</v>
@@ -20866,7 +20893,7 @@
       <c r="L22" s="273">
         <v>33</v>
       </c>
-      <c r="M22" s="529"/>
+      <c r="M22" s="611"/>
       <c r="N22" s="279">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -20899,7 +20926,7 @@
       <c r="L23" s="274">
         <v>0</v>
       </c>
-      <c r="M23" s="530"/>
+      <c r="M23" s="612"/>
       <c r="N23" s="280">
         <f t="shared" si="0"/>
         <v>-26</v>
@@ -20926,101 +20953,102 @@
   </sheetPr>
   <dimension ref="A1:BU46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="33" max="33" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="413"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="413"/>
-      <c r="F1" s="413"/>
-      <c r="G1" s="413"/>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
-      <c r="J1" s="413"/>
-      <c r="K1" s="414"/>
-      <c r="L1" s="412" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="413"/>
-      <c r="N1" s="413"/>
-      <c r="O1" s="413"/>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="413"/>
-      <c r="R1" s="413"/>
-      <c r="S1" s="414"/>
-      <c r="T1" s="412" t="s">
+      <c r="A1" s="466" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="466" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M1" s="467"/>
+      <c r="N1" s="467"/>
+      <c r="O1" s="467"/>
+      <c r="P1" s="467"/>
+      <c r="Q1" s="467"/>
+      <c r="R1" s="467"/>
+      <c r="S1" s="468"/>
+      <c r="T1" s="466" t="s">
         <v>849</v>
       </c>
-      <c r="U1" s="413"/>
-      <c r="V1" s="413"/>
-      <c r="W1" s="413"/>
-      <c r="X1" s="414"/>
-      <c r="Y1" s="412" t="s">
+      <c r="U1" s="467"/>
+      <c r="V1" s="467"/>
+      <c r="W1" s="467"/>
+      <c r="X1" s="468"/>
+      <c r="Y1" s="466" t="s">
         <v>850</v>
       </c>
-      <c r="Z1" s="413"/>
-      <c r="AA1" s="413"/>
-      <c r="AB1" s="414"/>
-      <c r="AC1" s="406" t="s">
+      <c r="Z1" s="467"/>
+      <c r="AA1" s="467"/>
+      <c r="AB1" s="468"/>
+      <c r="AC1" s="460" t="s">
         <v>322</v>
       </c>
-      <c r="AD1" s="407"/>
-      <c r="AE1" s="407"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="407"/>
-      <c r="AH1" s="407"/>
-      <c r="AI1" s="407"/>
-      <c r="AJ1" s="407"/>
-      <c r="AK1" s="407"/>
-      <c r="AL1" s="407"/>
-      <c r="AM1" s="407"/>
-      <c r="AN1" s="407"/>
-      <c r="AO1" s="407"/>
-      <c r="AP1" s="407"/>
-      <c r="AQ1" s="407"/>
-      <c r="AR1" s="407"/>
-      <c r="AS1" s="407"/>
-      <c r="AT1" s="407"/>
-      <c r="AU1" s="407"/>
-      <c r="AV1" s="407"/>
-      <c r="AW1" s="407"/>
-      <c r="AX1" s="407"/>
-      <c r="AY1" s="407"/>
-      <c r="AZ1" s="408"/>
-      <c r="BA1" s="409" t="s">
+      <c r="AD1" s="461"/>
+      <c r="AE1" s="461"/>
+      <c r="AF1" s="461"/>
+      <c r="AG1" s="461"/>
+      <c r="AH1" s="461"/>
+      <c r="AI1" s="461"/>
+      <c r="AJ1" s="461"/>
+      <c r="AK1" s="461"/>
+      <c r="AL1" s="461"/>
+      <c r="AM1" s="461"/>
+      <c r="AN1" s="461"/>
+      <c r="AO1" s="461"/>
+      <c r="AP1" s="461"/>
+      <c r="AQ1" s="461"/>
+      <c r="AR1" s="461"/>
+      <c r="AS1" s="461"/>
+      <c r="AT1" s="461"/>
+      <c r="AU1" s="461"/>
+      <c r="AV1" s="461"/>
+      <c r="AW1" s="461"/>
+      <c r="AX1" s="461"/>
+      <c r="AY1" s="461"/>
+      <c r="AZ1" s="462"/>
+      <c r="BA1" s="463" t="s">
         <v>975</v>
       </c>
-      <c r="BB1" s="410"/>
-      <c r="BC1" s="410"/>
-      <c r="BD1" s="410"/>
-      <c r="BE1" s="410"/>
-      <c r="BF1" s="410"/>
-      <c r="BG1" s="410"/>
-      <c r="BH1" s="410"/>
-      <c r="BI1" s="410"/>
-      <c r="BJ1" s="410"/>
-      <c r="BK1" s="410"/>
-      <c r="BL1" s="410"/>
-      <c r="BM1" s="410"/>
-      <c r="BN1" s="410"/>
-      <c r="BO1" s="410"/>
-      <c r="BP1" s="410"/>
-      <c r="BQ1" s="410"/>
-      <c r="BR1" s="410"/>
-      <c r="BS1" s="410"/>
-      <c r="BT1" s="410"/>
-      <c r="BU1" s="411"/>
+      <c r="BB1" s="464"/>
+      <c r="BC1" s="464"/>
+      <c r="BD1" s="464"/>
+      <c r="BE1" s="464"/>
+      <c r="BF1" s="464"/>
+      <c r="BG1" s="464"/>
+      <c r="BH1" s="464"/>
+      <c r="BI1" s="464"/>
+      <c r="BJ1" s="464"/>
+      <c r="BK1" s="464"/>
+      <c r="BL1" s="464"/>
+      <c r="BM1" s="464"/>
+      <c r="BN1" s="464"/>
+      <c r="BO1" s="464"/>
+      <c r="BP1" s="464"/>
+      <c r="BQ1" s="464"/>
+      <c r="BR1" s="464"/>
+      <c r="BS1" s="464"/>
+      <c r="BT1" s="464"/>
+      <c r="BU1" s="465"/>
     </row>
     <row r="2" spans="1:73" ht="27" customHeight="1">
       <c r="A2" s="21"/>
@@ -21051,46 +21079,46 @@
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
-      <c r="AC2" s="421" t="s">
+      <c r="AC2" s="472" t="s">
         <v>977</v>
       </c>
-      <c r="AD2" s="422"/>
-      <c r="AE2" s="422"/>
-      <c r="AF2" s="423"/>
+      <c r="AD2" s="473"/>
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="474"/>
       <c r="AG2" s="34" t="s">
         <v>978</v>
       </c>
-      <c r="AH2" s="421" t="s">
+      <c r="AH2" s="472" t="s">
         <v>979</v>
       </c>
-      <c r="AI2" s="422"/>
-      <c r="AJ2" s="423"/>
-      <c r="AK2" s="403" t="s">
+      <c r="AI2" s="473"/>
+      <c r="AJ2" s="474"/>
+      <c r="AK2" s="469" t="s">
         <v>980</v>
       </c>
-      <c r="AL2" s="404"/>
-      <c r="AM2" s="405"/>
-      <c r="AN2" s="403" t="s">
+      <c r="AL2" s="470"/>
+      <c r="AM2" s="471"/>
+      <c r="AN2" s="469" t="s">
         <v>981</v>
       </c>
-      <c r="AO2" s="404"/>
-      <c r="AP2" s="405"/>
-      <c r="AQ2" s="403" t="s">
+      <c r="AO2" s="470"/>
+      <c r="AP2" s="471"/>
+      <c r="AQ2" s="469" t="s">
         <v>982</v>
       </c>
-      <c r="AR2" s="404"/>
-      <c r="AS2" s="405"/>
-      <c r="AT2" s="403" t="s">
+      <c r="AR2" s="470"/>
+      <c r="AS2" s="471"/>
+      <c r="AT2" s="469" t="s">
         <v>983</v>
       </c>
-      <c r="AU2" s="404"/>
-      <c r="AV2" s="405"/>
-      <c r="AW2" s="403" t="s">
+      <c r="AU2" s="470"/>
+      <c r="AV2" s="471"/>
+      <c r="AW2" s="469" t="s">
         <v>984</v>
       </c>
-      <c r="AX2" s="404"/>
-      <c r="AY2" s="405"/>
-      <c r="AZ2" s="555" t="s">
+      <c r="AX2" s="470"/>
+      <c r="AY2" s="471"/>
+      <c r="AZ2" s="421" t="s">
         <v>976</v>
       </c>
       <c r="BA2" s="23"/>
@@ -21116,223 +21144,223 @@
       <c r="BU2" s="36"/>
     </row>
     <row r="3" spans="1:73" ht="29.25" customHeight="1">
-      <c r="A3" s="556" t="s">
+      <c r="A3" s="422" t="s">
         <v>821</v>
       </c>
-      <c r="B3" s="556" t="s">
+      <c r="B3" s="422" t="s">
         <v>822</v>
       </c>
-      <c r="C3" s="557" t="s">
+      <c r="C3" s="423" t="s">
         <v>823</v>
       </c>
-      <c r="D3" s="557" t="s">
+      <c r="D3" s="423" t="s">
         <v>824</v>
       </c>
-      <c r="E3" s="558" t="s">
+      <c r="E3" s="424" t="s">
         <v>825</v>
       </c>
-      <c r="F3" s="557" t="s">
+      <c r="F3" s="423" t="s">
         <v>826</v>
       </c>
-      <c r="G3" s="557" t="s">
+      <c r="G3" s="423" t="s">
         <v>827</v>
       </c>
-      <c r="H3" s="558" t="s">
+      <c r="H3" s="424" t="s">
         <v>828</v>
       </c>
-      <c r="I3" s="556" t="s">
+      <c r="I3" s="422" t="s">
         <v>829</v>
       </c>
-      <c r="J3" s="556" t="s">
+      <c r="J3" s="422" t="s">
         <v>830</v>
       </c>
-      <c r="K3" s="556" t="s">
+      <c r="K3" s="422" t="s">
         <v>831</v>
       </c>
-      <c r="L3" s="556" t="s">
+      <c r="L3" s="422" t="s">
         <v>832</v>
       </c>
-      <c r="M3" s="556" t="s">
+      <c r="M3" s="422" t="s">
         <v>833</v>
       </c>
-      <c r="N3" s="556" t="s">
+      <c r="N3" s="422" t="s">
         <v>834</v>
       </c>
-      <c r="O3" s="556" t="s">
+      <c r="O3" s="422" t="s">
         <v>835</v>
       </c>
-      <c r="P3" s="556" t="s">
+      <c r="P3" s="422" t="s">
         <v>839</v>
       </c>
-      <c r="Q3" s="556" t="s">
+      <c r="Q3" s="422" t="s">
         <v>836</v>
       </c>
-      <c r="R3" s="556" t="s">
+      <c r="R3" s="422" t="s">
         <v>837</v>
       </c>
-      <c r="S3" s="556" t="s">
+      <c r="S3" s="422" t="s">
         <v>838</v>
       </c>
-      <c r="T3" s="556" t="s">
+      <c r="T3" s="422" t="s">
         <v>840</v>
       </c>
-      <c r="U3" s="556" t="s">
+      <c r="U3" s="422" t="s">
         <v>841</v>
       </c>
-      <c r="V3" s="556" t="s">
+      <c r="V3" s="422" t="s">
         <v>842</v>
       </c>
-      <c r="W3" s="556" t="s">
+      <c r="W3" s="422" t="s">
         <v>843</v>
       </c>
-      <c r="X3" s="556" t="s">
+      <c r="X3" s="422" t="s">
         <v>844</v>
       </c>
-      <c r="Y3" s="556" t="s">
+      <c r="Y3" s="422" t="s">
         <v>845</v>
       </c>
-      <c r="Z3" s="556" t="s">
+      <c r="Z3" s="422" t="s">
         <v>846</v>
       </c>
-      <c r="AA3" s="556" t="s">
+      <c r="AA3" s="422" t="s">
         <v>847</v>
       </c>
-      <c r="AB3" s="559" t="s">
+      <c r="AB3" s="425" t="s">
         <v>848</v>
       </c>
-      <c r="AC3" s="543" t="s">
+      <c r="AC3" s="409" t="s">
         <v>851</v>
       </c>
-      <c r="AD3" s="560" t="s">
+      <c r="AD3" s="426" t="s">
         <v>852</v>
       </c>
-      <c r="AE3" s="545" t="s">
+      <c r="AE3" s="411" t="s">
         <v>853</v>
       </c>
-      <c r="AF3" s="549" t="s">
+      <c r="AF3" s="415" t="s">
         <v>854</v>
       </c>
-      <c r="AG3" s="561" t="s">
+      <c r="AG3" s="427" t="s">
         <v>855</v>
       </c>
-      <c r="AH3" s="543" t="s">
+      <c r="AH3" s="409" t="s">
         <v>856</v>
       </c>
-      <c r="AI3" s="542" t="s">
+      <c r="AI3" s="408" t="s">
         <v>857</v>
       </c>
       <c r="AJ3" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="AK3" s="544" t="s">
+      <c r="AK3" s="410" t="s">
         <v>859</v>
       </c>
-      <c r="AL3" s="545" t="s">
+      <c r="AL3" s="411" t="s">
         <v>860</v>
       </c>
       <c r="AM3" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="AN3" s="543" t="s">
+      <c r="AN3" s="409" t="s">
         <v>861</v>
       </c>
-      <c r="AO3" s="546" t="s">
+      <c r="AO3" s="412" t="s">
         <v>862</v>
       </c>
       <c r="AP3" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="AQ3" s="547" t="s">
+      <c r="AQ3" s="413" t="s">
         <v>863</v>
       </c>
-      <c r="AR3" s="542" t="s">
+      <c r="AR3" s="408" t="s">
         <v>864</v>
       </c>
       <c r="AS3" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="AT3" s="543" t="s">
+      <c r="AT3" s="409" t="s">
         <v>865</v>
       </c>
-      <c r="AU3" s="545" t="s">
+      <c r="AU3" s="411" t="s">
         <v>866</v>
       </c>
       <c r="AV3" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="AW3" s="548" t="s">
+      <c r="AW3" s="414" t="s">
         <v>867</v>
       </c>
-      <c r="AX3" s="545" t="s">
+      <c r="AX3" s="411" t="s">
         <v>868</v>
       </c>
-      <c r="AY3" s="549" t="s">
+      <c r="AY3" s="415" t="s">
         <v>869</v>
       </c>
-      <c r="AZ3" s="550" t="s">
+      <c r="AZ3" s="416" t="s">
         <v>960</v>
       </c>
-      <c r="BA3" s="551" t="s">
+      <c r="BA3" s="417" t="s">
         <v>761</v>
       </c>
-      <c r="BB3" s="552" t="s">
+      <c r="BB3" s="418" t="s">
         <v>763</v>
       </c>
-      <c r="BC3" s="552" t="s">
+      <c r="BC3" s="418" t="s">
         <v>961</v>
       </c>
-      <c r="BD3" s="552" t="s">
+      <c r="BD3" s="418" t="s">
         <v>764</v>
       </c>
-      <c r="BE3" s="552" t="s">
+      <c r="BE3" s="418" t="s">
         <v>765</v>
       </c>
-      <c r="BF3" s="552" t="s">
+      <c r="BF3" s="418" t="s">
         <v>962</v>
       </c>
-      <c r="BG3" s="552" t="s">
+      <c r="BG3" s="418" t="s">
         <v>766</v>
       </c>
-      <c r="BH3" s="552" t="s">
+      <c r="BH3" s="418" t="s">
         <v>767</v>
       </c>
-      <c r="BI3" s="552" t="s">
+      <c r="BI3" s="418" t="s">
         <v>768</v>
       </c>
-      <c r="BJ3" s="552" t="s">
+      <c r="BJ3" s="418" t="s">
         <v>963</v>
       </c>
-      <c r="BK3" s="552" t="s">
+      <c r="BK3" s="418" t="s">
         <v>964</v>
       </c>
-      <c r="BL3" s="552" t="s">
+      <c r="BL3" s="418" t="s">
         <v>965</v>
       </c>
-      <c r="BM3" s="552" t="s">
+      <c r="BM3" s="418" t="s">
         <v>966</v>
       </c>
-      <c r="BN3" s="552" t="s">
+      <c r="BN3" s="418" t="s">
         <v>967</v>
       </c>
-      <c r="BO3" s="552" t="s">
+      <c r="BO3" s="418" t="s">
         <v>968</v>
       </c>
-      <c r="BP3" s="552" t="s">
+      <c r="BP3" s="418" t="s">
         <v>969</v>
       </c>
-      <c r="BQ3" s="552" t="s">
+      <c r="BQ3" s="418" t="s">
         <v>970</v>
       </c>
-      <c r="BR3" s="553" t="s">
+      <c r="BR3" s="419" t="s">
         <v>971</v>
       </c>
-      <c r="BS3" s="554" t="s">
+      <c r="BS3" s="420" t="s">
         <v>972</v>
       </c>
-      <c r="BT3" s="554" t="s">
+      <c r="BT3" s="420" t="s">
         <v>973</v>
       </c>
-      <c r="BU3" s="554" t="s">
+      <c r="BU3" s="420" t="s">
         <v>974</v>
       </c>
     </row>
@@ -23463,7 +23491,7 @@
       <c r="AX32"/>
       <c r="AY32"/>
     </row>
-    <row r="33" spans="12:51" s="10" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+    <row r="33" spans="9:51" s="10" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="L33"/>
       <c r="T33"/>
       <c r="Y33"/>
@@ -23491,7 +23519,7 @@
       <c r="AX33"/>
       <c r="AY33"/>
     </row>
-    <row r="34" spans="12:51" s="10" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+    <row r="34" spans="9:51" s="10" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="L34" s="139" t="s">
         <v>806</v>
       </c>
@@ -23521,7 +23549,7 @@
       <c r="AX34"/>
       <c r="AY34"/>
     </row>
-    <row r="35" spans="12:51" s="10" customFormat="1" ht="18.75" customHeight="1">
+    <row r="35" spans="9:51" s="10" customFormat="1" ht="18.75" customHeight="1">
       <c r="L35" s="6" t="s">
         <v>807</v>
       </c>
@@ -23551,55 +23579,55 @@
       <c r="AX35"/>
       <c r="AY35"/>
     </row>
-    <row r="36" spans="12:51" ht="18.75" customHeight="1">
+    <row r="36" spans="9:51" ht="18.75" customHeight="1">
       <c r="L36" s="296" t="s">
         <v>808</v>
       </c>
       <c r="AC36" s="14"/>
       <c r="AK36" s="15"/>
     </row>
-    <row r="37" spans="12:51" ht="18.75" customHeight="1">
+    <row r="37" spans="9:51" ht="18.75" customHeight="1">
       <c r="AC37" s="14"/>
       <c r="AK37" s="16"/>
     </row>
-    <row r="38" spans="12:51" ht="18.75" customHeight="1">
+    <row r="38" spans="9:51" ht="18.75" customHeight="1">
       <c r="AC38" s="14"/>
       <c r="AK38" s="15"/>
     </row>
-    <row r="39" spans="12:51" ht="18.75" customHeight="1">
+    <row r="39" spans="9:51" ht="18.75" customHeight="1">
       <c r="AC39" s="14"/>
       <c r="AK39" s="16"/>
     </row>
-    <row r="40" spans="12:51" ht="18.75" customHeight="1">
+    <row r="40" spans="9:51" ht="18.75" customHeight="1">
+      <c r="I40" t="s">
+        <v>719</v>
+      </c>
       <c r="AC40" s="14"/>
       <c r="AK40" s="15"/>
     </row>
-    <row r="41" spans="12:51" ht="18.75" customHeight="1">
+    <row r="41" spans="9:51" ht="18.75" customHeight="1">
+      <c r="I41" s="620" t="s">
+        <v>722</v>
+      </c>
       <c r="AK41" s="16"/>
     </row>
-    <row r="42" spans="12:51" ht="18.75" customHeight="1">
+    <row r="42" spans="9:51" ht="18.75" customHeight="1">
       <c r="AK42" s="15"/>
     </row>
-    <row r="43" spans="12:51" ht="18.75" customHeight="1">
+    <row r="43" spans="9:51" ht="18.75" customHeight="1">
       <c r="AK43" s="16"/>
     </row>
-    <row r="44" spans="12:51" ht="18.75" customHeight="1">
+    <row r="44" spans="9:51" ht="18.75" customHeight="1">
       <c r="AK44" s="15"/>
     </row>
-    <row r="45" spans="12:51" ht="18.75" customHeight="1">
+    <row r="45" spans="9:51" ht="18.75" customHeight="1">
       <c r="AK45" s="16"/>
     </row>
-    <row r="46" spans="12:51" ht="18.75" customHeight="1">
+    <row r="46" spans="9:51" ht="18.75" customHeight="1">
       <c r="AK46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AC1:AZ1"/>
-    <mergeCell ref="BA1:BU1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AW2:AY2"/>
     <mergeCell ref="AC2:AF2"/>
@@ -23607,6 +23635,12 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AC1:AZ1"/>
+    <mergeCell ref="BA1:BU1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23621,7 +23655,7 @@
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
@@ -23642,21 +23676,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B1" s="531" t="s">
+      <c r="B1" s="613" t="s">
         <v>606</v>
       </c>
-      <c r="C1" s="532"/>
-      <c r="D1" s="532"/>
-      <c r="E1" s="532"/>
-      <c r="F1" s="532"/>
-      <c r="G1" s="532"/>
-      <c r="H1" s="532"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="534" t="s">
+      <c r="C1" s="614"/>
+      <c r="D1" s="614"/>
+      <c r="E1" s="614"/>
+      <c r="F1" s="614"/>
+      <c r="G1" s="614"/>
+      <c r="H1" s="614"/>
+      <c r="I1" s="615"/>
+      <c r="J1" s="616" t="s">
         <v>605</v>
       </c>
-      <c r="K1" s="535"/>
-      <c r="L1" s="536"/>
+      <c r="K1" s="617"/>
+      <c r="L1" s="618"/>
     </row>
     <row r="2" spans="1:14" s="54" customFormat="1" ht="51" customHeight="1">
       <c r="A2" s="282" t="s">
@@ -24647,7 +24681,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24656,29 +24690,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="B1" s="491" t="s">
+      <c r="B1" s="562" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
-      <c r="K1" s="491"/>
-      <c r="L1" s="491"/>
-      <c r="M1" s="491"/>
-      <c r="N1" s="491"/>
-      <c r="O1" s="491"/>
-      <c r="P1" s="491"/>
-      <c r="Q1" s="491"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="491"/>
-      <c r="T1" s="491"/>
-      <c r="U1" s="491"/>
-      <c r="V1" s="491"/>
+      <c r="C1" s="562"/>
+      <c r="D1" s="562"/>
+      <c r="E1" s="562"/>
+      <c r="F1" s="562"/>
+      <c r="G1" s="562"/>
+      <c r="H1" s="562"/>
+      <c r="I1" s="562"/>
+      <c r="J1" s="562"/>
+      <c r="K1" s="562"/>
+      <c r="L1" s="562"/>
+      <c r="M1" s="562"/>
+      <c r="N1" s="562"/>
+      <c r="O1" s="562"/>
+      <c r="P1" s="562"/>
+      <c r="Q1" s="562"/>
+      <c r="R1" s="562"/>
+      <c r="S1" s="562"/>
+      <c r="T1" s="562"/>
+      <c r="U1" s="562"/>
+      <c r="V1" s="562"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="160" t="s">
@@ -24848,24 +24882,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="415" t="s">
+      <c r="A2" s="475" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="415"/>
-      <c r="C2" s="415"/>
-      <c r="D2" s="415"/>
-      <c r="E2" s="415"/>
-      <c r="F2" s="415"/>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
-      <c r="I2" s="415"/>
-      <c r="J2" s="415"/>
-      <c r="K2" s="415"/>
-      <c r="L2" s="415"/>
-      <c r="M2" s="415"/>
-      <c r="N2" s="415"/>
-      <c r="O2" s="415"/>
-      <c r="P2" s="415"/>
+      <c r="B2" s="475"/>
+      <c r="C2" s="475"/>
+      <c r="D2" s="475"/>
+      <c r="E2" s="475"/>
+      <c r="F2" s="475"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
+      <c r="I2" s="475"/>
+      <c r="J2" s="475"/>
+      <c r="K2" s="475"/>
+      <c r="L2" s="475"/>
+      <c r="M2" s="475"/>
+      <c r="N2" s="475"/>
+      <c r="O2" s="475"/>
+      <c r="P2" s="475"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
       <c r="A3" s="37" t="s">
@@ -25673,7 +25707,7 @@
       <c r="O22" s="52"/>
       <c r="P22" s="52"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="24">
       <c r="A23" s="50" t="s">
         <v>879</v>
       </c>
@@ -25771,7 +25805,7 @@
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" ht="24">
       <c r="A28" s="50" t="s">
         <v>883</v>
       </c>
@@ -26245,7 +26279,7 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26270,61 +26304,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="412" t="s">
+      <c r="A1" s="466" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="413"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="413"/>
-      <c r="F1" s="413"/>
-      <c r="G1" s="413"/>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
-      <c r="J1" s="413"/>
-      <c r="K1" s="414"/>
-      <c r="L1" s="412" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="466" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="413"/>
-      <c r="N1" s="413"/>
-      <c r="O1" s="413"/>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="413"/>
-      <c r="R1" s="413"/>
-      <c r="S1" s="414"/>
-      <c r="T1" s="564" t="s">
+      <c r="M1" s="467"/>
+      <c r="N1" s="467"/>
+      <c r="O1" s="467"/>
+      <c r="P1" s="467"/>
+      <c r="Q1" s="467"/>
+      <c r="R1" s="467"/>
+      <c r="S1" s="468"/>
+      <c r="T1" s="485" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="565"/>
-      <c r="V1" s="565"/>
-      <c r="W1" s="565"/>
-      <c r="X1" s="566"/>
-      <c r="Y1" s="564" t="s">
+      <c r="U1" s="486"/>
+      <c r="V1" s="486"/>
+      <c r="W1" s="486"/>
+      <c r="X1" s="487"/>
+      <c r="Y1" s="485" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="565"/>
-      <c r="AA1" s="565"/>
-      <c r="AB1" s="566"/>
-      <c r="AC1" s="406" t="s">
+      <c r="Z1" s="486"/>
+      <c r="AA1" s="486"/>
+      <c r="AB1" s="487"/>
+      <c r="AC1" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="407"/>
-      <c r="AE1" s="407"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="407"/>
-      <c r="AH1" s="407"/>
-      <c r="AI1" s="407"/>
-      <c r="AJ1" s="407"/>
-      <c r="AK1" s="407"/>
-      <c r="AL1" s="407"/>
-      <c r="AM1" s="407"/>
-      <c r="AN1" s="407"/>
-      <c r="AO1" s="407"/>
-      <c r="AP1" s="407"/>
-      <c r="AQ1" s="407"/>
-      <c r="AR1" s="407"/>
-      <c r="AS1" s="408"/>
+      <c r="AD1" s="461"/>
+      <c r="AE1" s="461"/>
+      <c r="AF1" s="461"/>
+      <c r="AG1" s="461"/>
+      <c r="AH1" s="461"/>
+      <c r="AI1" s="461"/>
+      <c r="AJ1" s="461"/>
+      <c r="AK1" s="461"/>
+      <c r="AL1" s="461"/>
+      <c r="AM1" s="461"/>
+      <c r="AN1" s="461"/>
+      <c r="AO1" s="461"/>
+      <c r="AP1" s="461"/>
+      <c r="AQ1" s="461"/>
+      <c r="AR1" s="461"/>
+      <c r="AS1" s="462"/>
     </row>
     <row r="2" spans="1:45" ht="16.5" customHeight="1">
       <c r="A2" s="25"/>
@@ -26346,40 +26380,40 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="27"/>
-      <c r="T2" s="567"/>
-      <c r="U2" s="568"/>
-      <c r="V2" s="568"/>
-      <c r="W2" s="568"/>
-      <c r="X2" s="569"/>
-      <c r="Y2" s="567"/>
-      <c r="Z2" s="568"/>
-      <c r="AA2" s="568"/>
-      <c r="AB2" s="568"/>
-      <c r="AC2" s="421" t="s">
+      <c r="T2" s="430"/>
+      <c r="U2" s="431"/>
+      <c r="V2" s="431"/>
+      <c r="W2" s="431"/>
+      <c r="X2" s="432"/>
+      <c r="Y2" s="430"/>
+      <c r="Z2" s="431"/>
+      <c r="AA2" s="431"/>
+      <c r="AB2" s="431"/>
+      <c r="AC2" s="472" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="422"/>
-      <c r="AE2" s="422"/>
-      <c r="AF2" s="423"/>
-      <c r="AG2" s="421" t="s">
+      <c r="AD2" s="473"/>
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="474"/>
+      <c r="AG2" s="472" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="422"/>
-      <c r="AI2" s="422"/>
-      <c r="AJ2" s="423"/>
-      <c r="AK2" s="421" t="s">
+      <c r="AH2" s="473"/>
+      <c r="AI2" s="473"/>
+      <c r="AJ2" s="474"/>
+      <c r="AK2" s="472" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="422"/>
-      <c r="AM2" s="422"/>
-      <c r="AN2" s="423"/>
-      <c r="AO2" s="421" t="s">
+      <c r="AL2" s="473"/>
+      <c r="AM2" s="473"/>
+      <c r="AN2" s="474"/>
+      <c r="AO2" s="472" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="422"/>
-      <c r="AQ2" s="422"/>
-      <c r="AR2" s="423"/>
-      <c r="AS2" s="419" t="s">
+      <c r="AP2" s="473"/>
+      <c r="AQ2" s="473"/>
+      <c r="AR2" s="474"/>
+      <c r="AS2" s="483" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -26426,46 +26460,46 @@
       <c r="N3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="562" t="s">
+      <c r="O3" s="428" t="s">
         <v>997</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="Q3" s="562" t="s">
+      <c r="Q3" s="428" t="s">
         <v>836</v>
       </c>
-      <c r="R3" s="562" t="s">
+      <c r="R3" s="428" t="s">
         <v>837</v>
       </c>
-      <c r="S3" s="562" t="s">
+      <c r="S3" s="428" t="s">
         <v>838</v>
       </c>
-      <c r="T3" s="562" t="s">
+      <c r="T3" s="428" t="s">
         <v>840</v>
       </c>
-      <c r="U3" s="562" t="s">
+      <c r="U3" s="428" t="s">
         <v>841</v>
       </c>
-      <c r="V3" s="562" t="s">
+      <c r="V3" s="428" t="s">
         <v>842</v>
       </c>
-      <c r="W3" s="562" t="s">
+      <c r="W3" s="428" t="s">
         <v>843</v>
       </c>
-      <c r="X3" s="562" t="s">
+      <c r="X3" s="428" t="s">
         <v>999</v>
       </c>
-      <c r="Y3" s="562" t="s">
+      <c r="Y3" s="428" t="s">
         <v>1001</v>
       </c>
-      <c r="Z3" s="562" t="s">
+      <c r="Z3" s="428" t="s">
         <v>1002</v>
       </c>
-      <c r="AA3" s="562" t="s">
+      <c r="AA3" s="428" t="s">
         <v>1003</v>
       </c>
-      <c r="AB3" s="567" t="s">
+      <c r="AB3" s="430" t="s">
         <v>1000</v>
       </c>
       <c r="AC3" s="56" t="s">
@@ -26516,7 +26550,7 @@
       <c r="AR3" s="58" t="s">
         <v>1019</v>
       </c>
-      <c r="AS3" s="420"/>
+      <c r="AS3" s="484"/>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -26549,44 +26583,44 @@
       <c r="N4" s="3">
         <v>120</v>
       </c>
-      <c r="O4" s="563">
+      <c r="O4" s="429">
         <v>67</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="Q4" s="563" t="s">
+      <c r="Q4" s="429" t="s">
         <v>1041</v>
       </c>
-      <c r="R4" s="563" t="s">
+      <c r="R4" s="429" t="s">
         <v>762</v>
       </c>
-      <c r="S4" s="563"/>
-      <c r="T4" s="563" t="s">
+      <c r="S4" s="429"/>
+      <c r="T4" s="429" t="s">
         <v>1045</v>
       </c>
-      <c r="U4" s="563">
+      <c r="U4" s="429">
         <v>82</v>
       </c>
-      <c r="V4" s="563">
+      <c r="V4" s="429">
         <v>77</v>
       </c>
-      <c r="W4" s="563">
+      <c r="W4" s="429">
         <v>0</v>
       </c>
-      <c r="X4" s="563">
+      <c r="X4" s="429">
         <v>67</v>
       </c>
-      <c r="Y4" s="563" t="s">
+      <c r="Y4" s="429" t="s">
         <v>1045</v>
       </c>
-      <c r="Z4" s="563">
+      <c r="Z4" s="429">
         <v>23</v>
       </c>
-      <c r="AA4" s="563">
+      <c r="AA4" s="429">
         <v>35</v>
       </c>
-      <c r="AB4" s="570">
+      <c r="AB4" s="433">
         <v>27</v>
       </c>
       <c r="AC4" s="29">
@@ -26673,44 +26707,44 @@
       <c r="N5" s="3">
         <v>120</v>
       </c>
-      <c r="O5" s="563">
+      <c r="O5" s="429">
         <v>78</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="Q5" s="563" t="s">
+      <c r="Q5" s="429" t="s">
         <v>1041</v>
       </c>
-      <c r="R5" s="563" t="s">
+      <c r="R5" s="429" t="s">
         <v>1043</v>
       </c>
-      <c r="S5" s="563"/>
-      <c r="T5" s="563" t="s">
+      <c r="S5" s="429"/>
+      <c r="T5" s="429" t="s">
         <v>1045</v>
       </c>
-      <c r="U5" s="563">
+      <c r="U5" s="429">
         <v>90</v>
       </c>
-      <c r="V5" s="563">
+      <c r="V5" s="429">
         <v>88</v>
       </c>
-      <c r="W5" s="563">
+      <c r="W5" s="429">
         <v>0</v>
       </c>
-      <c r="X5" s="563">
+      <c r="X5" s="429">
         <v>78</v>
       </c>
-      <c r="Y5" s="563" t="s">
+      <c r="Y5" s="429" t="s">
         <v>1045</v>
       </c>
-      <c r="Z5" s="563">
+      <c r="Z5" s="429">
         <v>16</v>
       </c>
-      <c r="AA5" s="563">
+      <c r="AA5" s="429">
         <v>23</v>
       </c>
-      <c r="AB5" s="570">
+      <c r="AB5" s="433">
         <v>14</v>
       </c>
       <c r="AC5" s="29">
@@ -26797,42 +26831,42 @@
       <c r="N6" s="3">
         <v>120</v>
       </c>
-      <c r="O6" s="563">
+      <c r="O6" s="429">
         <v>76</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="563" t="s">
+      <c r="Q6" s="429" t="s">
         <v>1042</v>
       </c>
-      <c r="R6" s="563" t="s">
+      <c r="R6" s="429" t="s">
         <v>1044</v>
       </c>
-      <c r="S6" s="563"/>
-      <c r="T6" s="563" t="s">
+      <c r="S6" s="429"/>
+      <c r="T6" s="429" t="s">
         <v>1045</v>
       </c>
-      <c r="U6" s="563">
+      <c r="U6" s="429">
         <v>91</v>
       </c>
-      <c r="V6" s="563">
+      <c r="V6" s="429">
         <v>85</v>
       </c>
-      <c r="W6" s="563">
+      <c r="W6" s="429">
         <v>0</v>
       </c>
-      <c r="X6" s="563">
+      <c r="X6" s="429">
         <v>76</v>
       </c>
-      <c r="Y6" s="563" t="s">
+      <c r="Y6" s="429" t="s">
         <v>1045</v>
       </c>
-      <c r="Z6" s="563">
+      <c r="Z6" s="429">
         <v>21</v>
       </c>
-      <c r="AA6" s="563">
+      <c r="AA6" s="429">
         <v>35</v>
       </c>
-      <c r="AB6" s="570">
+      <c r="AB6" s="433">
         <v>27</v>
       </c>
       <c r="AC6" s="29">
@@ -27004,7 +27038,7 @@
         <v>798</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="L11" s="571" t="s">
+      <c r="L11" s="476" t="s">
         <v>1032</v>
       </c>
       <c r="M11" s="165" t="s">
@@ -27047,7 +27081,7 @@
         <v>799</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="L12" s="572"/>
+      <c r="L12" s="477"/>
       <c r="M12" s="163" t="s">
         <v>1025</v>
       </c>
@@ -27088,7 +27122,7 @@
         <v>986</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="L13" s="572"/>
+      <c r="L13" s="477"/>
       <c r="M13" s="163" t="s">
         <v>1026</v>
       </c>
@@ -27129,7 +27163,7 @@
         <v>987</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="L14" s="573"/>
+      <c r="L14" s="478"/>
       <c r="M14" s="164" t="s">
         <v>1022</v>
       </c>
@@ -27168,7 +27202,7 @@
         <v>988</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="L15" s="574" t="s">
+      <c r="L15" s="481" t="s">
         <v>1033</v>
       </c>
       <c r="M15" s="6" t="s">
@@ -27211,7 +27245,7 @@
         <v>989</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="L16" s="418"/>
+      <c r="L16" s="482"/>
       <c r="M16" s="10" t="s">
         <v>1028</v>
       </c>
@@ -27252,7 +27286,7 @@
         <v>793</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="L17" s="418"/>
+      <c r="L17" s="482"/>
       <c r="M17" s="10" t="s">
         <v>1029</v>
       </c>
@@ -27332,7 +27366,7 @@
     </row>
     <row r="19" spans="1:44" s="10" customFormat="1" ht="17.25" customHeight="1">
       <c r="B19" s="13"/>
-      <c r="L19" s="416" t="s">
+      <c r="L19" s="479" t="s">
         <v>1035</v>
       </c>
       <c r="M19" s="166" t="s">
@@ -27371,7 +27405,7 @@
       <c r="AR19" s="16"/>
     </row>
     <row r="20" spans="1:44" s="10" customFormat="1" ht="17.25" customHeight="1">
-      <c r="L20" s="417"/>
+      <c r="L20" s="480"/>
       <c r="M20" s="167" t="s">
         <v>1031</v>
       </c>
@@ -27537,6 +27571,9 @@
       <c r="T28"/>
     </row>
     <row r="29" spans="1:44" s="10" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B29" s="10" t="s">
+        <v>726</v>
+      </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="L29"/>
@@ -27682,6 +27719,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AS1"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="L15:L17"/>
@@ -27690,11 +27732,6 @@
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27707,10 +27744,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:K229"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27721,30 +27758,30 @@
     <col min="11" max="11" width="11.5703125" style="115" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75">
+    <row r="1" spans="1:13" ht="75">
       <c r="A1" s="137" t="s">
         <v>1046</v>
       </c>
       <c r="B1" s="156" t="s">
         <v>1047</v>
       </c>
-      <c r="C1" s="424" t="s">
+      <c r="C1" s="488" t="s">
         <v>1048</v>
       </c>
-      <c r="D1" s="424"/>
-      <c r="E1" s="424"/>
-      <c r="F1" s="425" t="s">
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="489" t="s">
         <v>1049</v>
       </c>
-      <c r="G1" s="425"/>
-      <c r="H1" s="425"/>
-      <c r="I1" s="425"/>
-      <c r="J1" s="425"/>
+      <c r="G1" s="489"/>
+      <c r="H1" s="489"/>
+      <c r="I1" s="489"/>
+      <c r="J1" s="489"/>
       <c r="K1" s="154" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="137">
         <v>1</v>
       </c>
@@ -27763,7 +27800,7 @@
       <c r="J2" s="155"/>
       <c r="K2" s="155"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="137">
         <v>2</v>
       </c>
@@ -27781,8 +27818,11 @@
       <c r="I3" s="155"/>
       <c r="J3" s="155"/>
       <c r="K3" s="155"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="137">
         <v>3</v>
       </c>
@@ -27801,7 +27841,7 @@
       <c r="J4" s="155"/>
       <c r="K4" s="155"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="137">
         <v>4</v>
       </c>
@@ -27820,7 +27860,7 @@
       <c r="J5" s="155"/>
       <c r="K5" s="155"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="137">
         <v>5</v>
       </c>
@@ -27839,7 +27879,7 @@
       <c r="J6" s="155"/>
       <c r="K6" s="155"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="137">
         <v>6</v>
       </c>
@@ -27860,7 +27900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="137">
         <v>7</v>
       </c>
@@ -27879,7 +27919,7 @@
       <c r="J8" s="155"/>
       <c r="K8" s="155"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" s="137">
         <v>8</v>
       </c>
@@ -27898,7 +27938,7 @@
       <c r="J9" s="155"/>
       <c r="K9" s="155"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" s="137">
         <v>9</v>
       </c>
@@ -27919,7 +27959,7 @@
       <c r="J10" s="155"/>
       <c r="K10" s="155"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" s="137">
         <v>10</v>
       </c>
@@ -27936,7 +27976,7 @@
       <c r="J11" s="155"/>
       <c r="K11" s="155"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" s="137">
         <v>11</v>
       </c>
@@ -27955,7 +27995,7 @@
       <c r="J12" s="155"/>
       <c r="K12" s="155"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13" s="137">
         <v>12</v>
       </c>
@@ -27976,7 +28016,7 @@
       <c r="J13" s="155"/>
       <c r="K13" s="155"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" s="137">
         <v>13</v>
       </c>
@@ -27995,7 +28035,7 @@
       <c r="J14" s="155"/>
       <c r="K14" s="155"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" s="137">
         <v>14</v>
       </c>
@@ -28016,7 +28056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" s="137">
         <v>15</v>
       </c>
@@ -31893,10 +31933,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="N6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31910,50 +31950,50 @@
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="53.25" customHeight="1">
-      <c r="A1" s="426" t="s">
+    <row r="1" spans="1:10" ht="53.25" customHeight="1">
+      <c r="A1" s="490" t="s">
         <v>1051</v>
       </c>
-      <c r="B1" s="427"/>
+      <c r="B1" s="491"/>
       <c r="C1" s="148" t="s">
         <v>1052</v>
       </c>
       <c r="D1" s="149" t="s">
         <v>1056</v>
       </c>
-      <c r="E1" s="428" t="s">
+      <c r="E1" s="492" t="s">
         <v>1058</v>
       </c>
-      <c r="F1" s="429"/>
-      <c r="G1" s="578" t="s">
+      <c r="F1" s="493"/>
+      <c r="G1" s="437" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="65.25" customHeight="1">
+    <row r="2" spans="1:10" ht="65.25" customHeight="1">
       <c r="A2" s="145" t="s">
         <v>1053</v>
       </c>
-      <c r="B2" s="575" t="s">
+      <c r="B2" s="434" t="s">
         <v>1054</v>
       </c>
-      <c r="C2" s="576" t="s">
+      <c r="C2" s="435" t="s">
         <v>1055</v>
       </c>
-      <c r="D2" s="577" t="s">
+      <c r="D2" s="436" t="s">
         <v>1057</v>
       </c>
-      <c r="E2" s="581" t="s">
+      <c r="E2" s="440" t="s">
         <v>1059</v>
       </c>
-      <c r="F2" s="583" t="s">
+      <c r="F2" s="442" t="s">
         <v>1060</v>
       </c>
-      <c r="G2" s="582" t="s">
+      <c r="G2" s="441" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="579" t="s">
+    <row r="3" spans="1:10" ht="45">
+      <c r="A3" s="438" t="s">
         <v>1064</v>
       </c>
       <c r="B3" s="146">
@@ -31965,7 +32005,7 @@
       <c r="D3" s="150">
         <v>100</v>
       </c>
-      <c r="E3" s="430" t="s">
+      <c r="E3" s="494" t="s">
         <v>1063</v>
       </c>
       <c r="F3" s="151">
@@ -31975,8 +32015,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="579" t="s">
+    <row r="4" spans="1:10" ht="30">
+      <c r="A4" s="438" t="s">
         <v>1065</v>
       </c>
       <c r="B4" s="146">
@@ -31988,16 +32028,19 @@
       <c r="D4" s="150">
         <v>99</v>
       </c>
-      <c r="E4" s="431"/>
+      <c r="E4" s="495"/>
       <c r="F4" s="151">
         <v>-1</v>
       </c>
       <c r="G4" s="152">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="579" t="s">
+      <c r="J4" s="619" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="438" t="s">
         <v>1066</v>
       </c>
       <c r="B5" s="146">
@@ -32009,7 +32052,7 @@
       <c r="D5" s="150">
         <v>98</v>
       </c>
-      <c r="E5" s="431"/>
+      <c r="E5" s="495"/>
       <c r="F5" s="151">
         <v>-1</v>
       </c>
@@ -32017,8 +32060,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="579" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B6" s="146">
@@ -32030,7 +32073,7 @@
       <c r="D6" s="150">
         <v>97</v>
       </c>
-      <c r="E6" s="431"/>
+      <c r="E6" s="495"/>
       <c r="F6" s="151">
         <v>-1</v>
       </c>
@@ -32038,8 +32081,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="579" t="s">
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="438" t="s">
         <v>1065</v>
       </c>
       <c r="B7" s="146">
@@ -32051,7 +32094,7 @@
       <c r="D7" s="150">
         <v>97</v>
       </c>
-      <c r="E7" s="431"/>
+      <c r="E7" s="495"/>
       <c r="F7" s="151">
         <v>-1</v>
       </c>
@@ -32059,8 +32102,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="579" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B8" s="146">
@@ -32072,7 +32115,7 @@
       <c r="D8" s="150">
         <v>96</v>
       </c>
-      <c r="E8" s="431"/>
+      <c r="E8" s="495"/>
       <c r="F8" s="151">
         <v>-1</v>
       </c>
@@ -32080,8 +32123,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="579" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B9" s="146">
@@ -32093,7 +32136,7 @@
       <c r="D9" s="150">
         <v>95</v>
       </c>
-      <c r="E9" s="431"/>
+      <c r="E9" s="495"/>
       <c r="F9" s="151">
         <v>-1</v>
       </c>
@@ -32101,8 +32144,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="579" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B10" s="146">
@@ -32114,7 +32157,7 @@
       <c r="D10" s="150">
         <v>94</v>
       </c>
-      <c r="E10" s="431"/>
+      <c r="E10" s="495"/>
       <c r="F10" s="151">
         <v>-1</v>
       </c>
@@ -32122,8 +32165,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="579" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B11" s="146">
@@ -32135,7 +32178,7 @@
       <c r="D11" s="150">
         <v>94</v>
       </c>
-      <c r="E11" s="431"/>
+      <c r="E11" s="495"/>
       <c r="F11" s="151">
         <v>-1</v>
       </c>
@@ -32143,8 +32186,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="579" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B12" s="146">
@@ -32156,7 +32199,7 @@
       <c r="D12" s="150">
         <v>93</v>
       </c>
-      <c r="E12" s="431"/>
+      <c r="E12" s="495"/>
       <c r="F12" s="151">
         <v>-1</v>
       </c>
@@ -32164,8 +32207,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="579" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B13" s="146">
@@ -32177,7 +32220,7 @@
       <c r="D13" s="150">
         <v>92</v>
       </c>
-      <c r="E13" s="431"/>
+      <c r="E13" s="495"/>
       <c r="F13" s="151">
         <v>-1</v>
       </c>
@@ -32185,8 +32228,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="579" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B14" s="146">
@@ -32198,7 +32241,7 @@
       <c r="D14" s="150">
         <v>91</v>
       </c>
-      <c r="E14" s="431"/>
+      <c r="E14" s="495"/>
       <c r="F14" s="151">
         <v>-1</v>
       </c>
@@ -32206,8 +32249,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="579" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B15" s="146">
@@ -32219,7 +32262,7 @@
       <c r="D15" s="150">
         <v>90</v>
       </c>
-      <c r="E15" s="431"/>
+      <c r="E15" s="495"/>
       <c r="F15" s="151">
         <v>-1</v>
       </c>
@@ -32227,8 +32270,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="579" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B16" s="146">
@@ -32240,7 +32283,7 @@
       <c r="D16" s="150">
         <v>89</v>
       </c>
-      <c r="E16" s="431"/>
+      <c r="E16" s="495"/>
       <c r="F16" s="151">
         <v>-1</v>
       </c>
@@ -32249,7 +32292,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="579" t="s">
+      <c r="A17" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B17" s="146">
@@ -32261,7 +32304,7 @@
       <c r="D17" s="150">
         <v>88</v>
       </c>
-      <c r="E17" s="431"/>
+      <c r="E17" s="495"/>
       <c r="F17" s="151">
         <v>-1</v>
       </c>
@@ -32270,7 +32313,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="579" t="s">
+      <c r="A18" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B18" s="146">
@@ -32282,7 +32325,7 @@
       <c r="D18" s="150">
         <v>87</v>
       </c>
-      <c r="E18" s="431"/>
+      <c r="E18" s="495"/>
       <c r="F18" s="151">
         <v>-1</v>
       </c>
@@ -32291,7 +32334,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="579" t="s">
+      <c r="A19" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B19" s="146">
@@ -32303,7 +32346,7 @@
       <c r="D19" s="150">
         <v>86</v>
       </c>
-      <c r="E19" s="431"/>
+      <c r="E19" s="495"/>
       <c r="F19" s="151">
         <v>-1</v>
       </c>
@@ -32312,7 +32355,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="579" t="s">
+      <c r="A20" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B20" s="146">
@@ -32324,7 +32367,7 @@
       <c r="D20" s="150">
         <v>85</v>
       </c>
-      <c r="E20" s="431"/>
+      <c r="E20" s="495"/>
       <c r="F20" s="151">
         <v>-1</v>
       </c>
@@ -32333,7 +32376,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="579" t="s">
+      <c r="A21" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B21" s="146">
@@ -32345,7 +32388,7 @@
       <c r="D21" s="150">
         <v>84</v>
       </c>
-      <c r="E21" s="431"/>
+      <c r="E21" s="495"/>
       <c r="F21" s="151">
         <v>-1</v>
       </c>
@@ -32354,7 +32397,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="579" t="s">
+      <c r="A22" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B22" s="146">
@@ -32366,7 +32409,7 @@
       <c r="D22" s="150">
         <v>83</v>
       </c>
-      <c r="E22" s="431"/>
+      <c r="E22" s="495"/>
       <c r="F22" s="151">
         <v>-1</v>
       </c>
@@ -32375,7 +32418,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="579" t="s">
+      <c r="A23" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B23" s="146">
@@ -32387,7 +32430,7 @@
       <c r="D23" s="150">
         <v>82</v>
       </c>
-      <c r="E23" s="431"/>
+      <c r="E23" s="495"/>
       <c r="F23" s="151">
         <v>-1</v>
       </c>
@@ -32396,7 +32439,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="579" t="s">
+      <c r="A24" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B24" s="146">
@@ -32408,7 +32451,7 @@
       <c r="D24" s="150">
         <v>81</v>
       </c>
-      <c r="E24" s="431"/>
+      <c r="E24" s="495"/>
       <c r="F24" s="151">
         <v>-1</v>
       </c>
@@ -32417,7 +32460,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="579" t="s">
+      <c r="A25" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B25" s="146">
@@ -32429,7 +32472,7 @@
       <c r="D25" s="150">
         <v>80</v>
       </c>
-      <c r="E25" s="431"/>
+      <c r="E25" s="495"/>
       <c r="F25" s="151">
         <v>-1</v>
       </c>
@@ -32438,7 +32481,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="579" t="s">
+      <c r="A26" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B26" s="146">
@@ -32450,7 +32493,7 @@
       <c r="D26" s="150">
         <v>79</v>
       </c>
-      <c r="E26" s="431"/>
+      <c r="E26" s="495"/>
       <c r="F26" s="151">
         <v>-1</v>
       </c>
@@ -32459,7 +32502,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="579" t="s">
+      <c r="A27" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B27" s="146">
@@ -32471,7 +32514,7 @@
       <c r="D27" s="150">
         <v>78</v>
       </c>
-      <c r="E27" s="431"/>
+      <c r="E27" s="495"/>
       <c r="F27" s="151">
         <v>-1</v>
       </c>
@@ -32480,7 +32523,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="579" t="s">
+      <c r="A28" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B28" s="146">
@@ -32492,7 +32535,7 @@
       <c r="D28" s="150">
         <v>77</v>
       </c>
-      <c r="E28" s="431"/>
+      <c r="E28" s="495"/>
       <c r="F28" s="151">
         <v>-1</v>
       </c>
@@ -32501,7 +32544,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="579" t="s">
+      <c r="A29" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B29" s="146">
@@ -32513,7 +32556,7 @@
       <c r="D29" s="150">
         <v>76</v>
       </c>
-      <c r="E29" s="431"/>
+      <c r="E29" s="495"/>
       <c r="F29" s="151">
         <v>-1</v>
       </c>
@@ -32522,7 +32565,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="579" t="s">
+      <c r="A30" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B30" s="146">
@@ -32534,7 +32577,7 @@
       <c r="D30" s="150">
         <v>75</v>
       </c>
-      <c r="E30" s="431"/>
+      <c r="E30" s="495"/>
       <c r="F30" s="151">
         <v>-1</v>
       </c>
@@ -32543,7 +32586,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="579" t="s">
+      <c r="A31" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B31" s="146">
@@ -32555,7 +32598,7 @@
       <c r="D31" s="150">
         <v>74</v>
       </c>
-      <c r="E31" s="431"/>
+      <c r="E31" s="495"/>
       <c r="F31" s="151">
         <v>-1</v>
       </c>
@@ -32564,7 +32607,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="579" t="s">
+      <c r="A32" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B32" s="146">
@@ -32576,7 +32619,7 @@
       <c r="D32" s="150">
         <v>73</v>
       </c>
-      <c r="E32" s="431"/>
+      <c r="E32" s="495"/>
       <c r="F32" s="151">
         <v>-1</v>
       </c>
@@ -32585,7 +32628,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="579" t="s">
+      <c r="A33" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B33" s="146">
@@ -32597,7 +32640,7 @@
       <c r="D33" s="150">
         <v>72</v>
       </c>
-      <c r="E33" s="431"/>
+      <c r="E33" s="495"/>
       <c r="F33" s="151">
         <v>-1</v>
       </c>
@@ -32606,7 +32649,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="579" t="s">
+      <c r="A34" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B34" s="146">
@@ -32618,7 +32661,7 @@
       <c r="D34" s="150">
         <v>71</v>
       </c>
-      <c r="E34" s="431"/>
+      <c r="E34" s="495"/>
       <c r="F34" s="151">
         <v>-1</v>
       </c>
@@ -32627,7 +32670,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="579" t="s">
+      <c r="A35" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B35" s="146">
@@ -32639,7 +32682,7 @@
       <c r="D35" s="150">
         <v>70</v>
       </c>
-      <c r="E35" s="431"/>
+      <c r="E35" s="495"/>
       <c r="F35" s="151">
         <v>-1</v>
       </c>
@@ -32648,7 +32691,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="579" t="s">
+      <c r="A36" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B36" s="146">
@@ -32660,7 +32703,7 @@
       <c r="D36" s="150">
         <v>69</v>
       </c>
-      <c r="E36" s="431"/>
+      <c r="E36" s="495"/>
       <c r="F36" s="151">
         <v>-1</v>
       </c>
@@ -32669,7 +32712,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="579" t="s">
+      <c r="A37" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B37" s="146">
@@ -32681,7 +32724,7 @@
       <c r="D37" s="150">
         <v>68</v>
       </c>
-      <c r="E37" s="431"/>
+      <c r="E37" s="495"/>
       <c r="F37" s="151">
         <v>-1</v>
       </c>
@@ -32690,7 +32733,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="579" t="s">
+      <c r="A38" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B38" s="146">
@@ -32702,7 +32745,7 @@
       <c r="D38" s="150">
         <v>67</v>
       </c>
-      <c r="E38" s="431"/>
+      <c r="E38" s="495"/>
       <c r="F38" s="151">
         <v>-1</v>
       </c>
@@ -32711,7 +32754,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="579" t="s">
+      <c r="A39" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B39" s="146">
@@ -32723,7 +32766,7 @@
       <c r="D39" s="150">
         <v>66</v>
       </c>
-      <c r="E39" s="431"/>
+      <c r="E39" s="495"/>
       <c r="F39" s="151">
         <v>-1</v>
       </c>
@@ -32732,7 +32775,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="579" t="s">
+      <c r="A40" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B40" s="146">
@@ -32744,7 +32787,7 @@
       <c r="D40" s="150">
         <v>65</v>
       </c>
-      <c r="E40" s="431"/>
+      <c r="E40" s="495"/>
       <c r="F40" s="151">
         <v>-1</v>
       </c>
@@ -32753,7 +32796,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="30">
-      <c r="A41" s="579" t="s">
+      <c r="A41" s="438" t="s">
         <v>1066</v>
       </c>
       <c r="B41" s="146" t="s">
@@ -32765,7 +32808,7 @@
       <c r="D41" s="150">
         <v>64</v>
       </c>
-      <c r="E41" s="431"/>
+      <c r="E41" s="495"/>
       <c r="F41" s="151">
         <v>-1</v>
       </c>
@@ -32774,7 +32817,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="579" t="s">
+      <c r="A42" s="438" t="s">
         <v>1070</v>
       </c>
       <c r="B42" s="146" t="s">
@@ -32786,7 +32829,7 @@
       <c r="D42" s="150">
         <v>63</v>
       </c>
-      <c r="E42" s="431"/>
+      <c r="E42" s="495"/>
       <c r="F42" s="151">
         <v>-1</v>
       </c>
@@ -32795,7 +32838,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="579" t="s">
+      <c r="A43" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B43" s="146">
@@ -32807,7 +32850,7 @@
       <c r="D43" s="150">
         <v>62</v>
       </c>
-      <c r="E43" s="431"/>
+      <c r="E43" s="495"/>
       <c r="F43" s="151">
         <v>-1</v>
       </c>
@@ -32816,7 +32859,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="579" t="s">
+      <c r="A44" s="438" t="s">
         <v>1070</v>
       </c>
       <c r="B44" s="146">
@@ -32828,7 +32871,7 @@
       <c r="D44" s="150">
         <v>61</v>
       </c>
-      <c r="E44" s="431"/>
+      <c r="E44" s="495"/>
       <c r="F44" s="151">
         <v>-1</v>
       </c>
@@ -32837,7 +32880,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="579" t="s">
+      <c r="A45" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B45" s="146">
@@ -32849,7 +32892,7 @@
       <c r="D45" s="150">
         <v>60</v>
       </c>
-      <c r="E45" s="431"/>
+      <c r="E45" s="495"/>
       <c r="F45" s="151">
         <v>-1</v>
       </c>
@@ -32858,7 +32901,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="579" t="s">
+      <c r="A46" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B46" s="146">
@@ -32870,7 +32913,7 @@
       <c r="D46" s="150">
         <v>59</v>
       </c>
-      <c r="E46" s="431"/>
+      <c r="E46" s="495"/>
       <c r="F46" s="151">
         <v>-1</v>
       </c>
@@ -32879,7 +32922,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="579" t="s">
+      <c r="A47" s="438" t="s">
         <v>1071</v>
       </c>
       <c r="B47" s="146" t="s">
@@ -32891,7 +32934,7 @@
       <c r="D47" s="150">
         <v>58</v>
       </c>
-      <c r="E47" s="431"/>
+      <c r="E47" s="495"/>
       <c r="F47" s="151">
         <v>-1</v>
       </c>
@@ -32900,7 +32943,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="579" t="s">
+      <c r="A48" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B48" s="146">
@@ -32912,7 +32955,7 @@
       <c r="D48" s="150">
         <v>57</v>
       </c>
-      <c r="E48" s="431"/>
+      <c r="E48" s="495"/>
       <c r="F48" s="151">
         <v>-1</v>
       </c>
@@ -32921,7 +32964,7 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="579" t="s">
+      <c r="A49" s="438" t="s">
         <v>1068</v>
       </c>
       <c r="B49" s="146">
@@ -32933,7 +32976,7 @@
       <c r="D49" s="150">
         <v>56</v>
       </c>
-      <c r="E49" s="431"/>
+      <c r="E49" s="495"/>
       <c r="F49" s="151">
         <v>-1</v>
       </c>
@@ -32942,7 +32985,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="579" t="s">
+      <c r="A50" s="438" t="s">
         <v>1069</v>
       </c>
       <c r="B50" s="146">
@@ -32954,7 +32997,7 @@
       <c r="D50" s="150">
         <v>55</v>
       </c>
-      <c r="E50" s="431"/>
+      <c r="E50" s="495"/>
       <c r="F50" s="151">
         <v>-1</v>
       </c>
@@ -32963,7 +33006,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="579" t="s">
+      <c r="A51" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B51" s="146">
@@ -32975,7 +33018,7 @@
       <c r="D51" s="150">
         <v>54</v>
       </c>
-      <c r="E51" s="431"/>
+      <c r="E51" s="495"/>
       <c r="F51" s="151">
         <v>-1</v>
       </c>
@@ -32984,7 +33027,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="579" t="s">
+      <c r="A52" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B52" s="146">
@@ -32996,7 +33039,7 @@
       <c r="D52" s="150">
         <v>53</v>
       </c>
-      <c r="E52" s="431"/>
+      <c r="E52" s="495"/>
       <c r="F52" s="151">
         <v>-1</v>
       </c>
@@ -33005,7 +33048,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="579" t="s">
+      <c r="A53" s="438" t="s">
         <v>1067</v>
       </c>
       <c r="B53" s="146">
@@ -33017,7 +33060,7 @@
       <c r="D53" s="150">
         <v>52</v>
       </c>
-      <c r="E53" s="431"/>
+      <c r="E53" s="495"/>
       <c r="F53" s="151">
         <v>-1</v>
       </c>
@@ -33026,7 +33069,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A54" s="580" t="s">
+      <c r="A54" s="439" t="s">
         <v>1068</v>
       </c>
       <c r="B54" s="147" t="s">
@@ -33038,7 +33081,7 @@
       <c r="D54" s="150">
         <v>51</v>
       </c>
-      <c r="E54" s="432"/>
+      <c r="E54" s="496"/>
       <c r="F54" s="151">
         <v>-1</v>
       </c>
@@ -33054,6 +33097,7 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33064,8 +33108,8 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33077,86 +33121,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="436" t="s">
+      <c r="A1" s="500" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
-      <c r="H1" s="436"/>
-      <c r="I1" s="436"/>
-      <c r="J1" s="436"/>
-      <c r="K1" s="436"/>
-      <c r="L1" s="436"/>
-      <c r="M1" s="436"/>
-      <c r="N1" s="436"/>
-      <c r="O1" s="436"/>
-      <c r="P1" s="436"/>
-      <c r="Q1" s="436"/>
-      <c r="R1" s="436"/>
-      <c r="S1" s="436"/>
-      <c r="T1" s="436"/>
-      <c r="U1" s="436"/>
-      <c r="V1" s="436"/>
-      <c r="W1" s="436"/>
-      <c r="X1" s="436"/>
-      <c r="Y1" s="436"/>
-      <c r="Z1" s="436"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="500"/>
+      <c r="H1" s="500"/>
+      <c r="I1" s="500"/>
+      <c r="J1" s="500"/>
+      <c r="K1" s="500"/>
+      <c r="L1" s="500"/>
+      <c r="M1" s="500"/>
+      <c r="N1" s="500"/>
+      <c r="O1" s="500"/>
+      <c r="P1" s="500"/>
+      <c r="Q1" s="500"/>
+      <c r="R1" s="500"/>
+      <c r="S1" s="500"/>
+      <c r="T1" s="500"/>
+      <c r="U1" s="500"/>
+      <c r="V1" s="500"/>
+      <c r="W1" s="500"/>
+      <c r="X1" s="500"/>
+      <c r="Y1" s="500"/>
+      <c r="Z1" s="500"/>
     </row>
     <row r="2" spans="1:27" ht="25.5" customHeight="1">
-      <c r="A2" s="437" t="s">
+      <c r="A2" s="501" t="s">
         <v>1081</v>
       </c>
-      <c r="B2" s="433" t="s">
+      <c r="B2" s="497" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="435"/>
-      <c r="D2" s="435"/>
-      <c r="E2" s="434"/>
-      <c r="F2" s="439" t="s">
+      <c r="C2" s="499"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="498"/>
+      <c r="F2" s="503" t="s">
         <v>317</v>
       </c>
-      <c r="G2" s="440"/>
-      <c r="H2" s="433" t="s">
+      <c r="G2" s="504"/>
+      <c r="H2" s="497" t="s">
         <v>318</v>
       </c>
-      <c r="I2" s="435"/>
-      <c r="J2" s="434"/>
-      <c r="K2" s="439" t="s">
+      <c r="I2" s="499"/>
+      <c r="J2" s="498"/>
+      <c r="K2" s="503" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="441"/>
-      <c r="M2" s="440"/>
-      <c r="N2" s="433" t="s">
+      <c r="L2" s="505"/>
+      <c r="M2" s="504"/>
+      <c r="N2" s="497" t="s">
         <v>319</v>
       </c>
-      <c r="O2" s="435"/>
-      <c r="P2" s="434"/>
-      <c r="Q2" s="433" t="s">
+      <c r="O2" s="499"/>
+      <c r="P2" s="498"/>
+      <c r="Q2" s="497" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="435"/>
-      <c r="S2" s="434"/>
-      <c r="T2" s="433" t="s">
+      <c r="R2" s="499"/>
+      <c r="S2" s="498"/>
+      <c r="T2" s="497" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="435"/>
-      <c r="V2" s="434"/>
-      <c r="W2" s="433" t="s">
+      <c r="U2" s="499"/>
+      <c r="V2" s="498"/>
+      <c r="W2" s="497" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="435"/>
-      <c r="Y2" s="434"/>
-      <c r="Z2" s="433" t="s">
+      <c r="X2" s="499"/>
+      <c r="Y2" s="498"/>
+      <c r="Z2" s="497" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="434"/>
+      <c r="AA2" s="498"/>
     </row>
     <row r="3" spans="1:27" ht="42.75" customHeight="1">
-      <c r="A3" s="438"/>
+      <c r="A3" s="502"/>
       <c r="B3" s="56" t="s">
         <v>1082</v>
       </c>
@@ -33175,7 +33219,7 @@
       <c r="G3" s="229" t="s">
         <v>1085</v>
       </c>
-      <c r="H3" s="584" t="s">
+      <c r="H3" s="443" t="s">
         <v>1087</v>
       </c>
       <c r="I3" s="57" t="s">
@@ -34725,67 +34769,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A1" s="436" t="s">
+      <c r="A1" s="500" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="436"/>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-      <c r="E1" s="436"/>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
-      <c r="H1" s="436"/>
-      <c r="I1" s="436"/>
-      <c r="J1" s="436"/>
-      <c r="K1" s="436"/>
-      <c r="L1" s="436"/>
-      <c r="M1" s="436"/>
-      <c r="N1" s="436"/>
-      <c r="O1" s="436"/>
-      <c r="P1" s="436"/>
-      <c r="Q1" s="436"/>
-      <c r="R1" s="436"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="500"/>
+      <c r="H1" s="500"/>
+      <c r="I1" s="500"/>
+      <c r="J1" s="500"/>
+      <c r="K1" s="500"/>
+      <c r="L1" s="500"/>
+      <c r="M1" s="500"/>
+      <c r="N1" s="500"/>
+      <c r="O1" s="500"/>
+      <c r="P1" s="500"/>
+      <c r="Q1" s="500"/>
+      <c r="R1" s="500"/>
     </row>
     <row r="2" spans="1:19" ht="47.25" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>1137</v>
       </c>
-      <c r="B2" s="447" t="s">
+      <c r="B2" s="506" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="449"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="508"/>
       <c r="E2" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="450" t="s">
+      <c r="F2" s="509" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="451"/>
-      <c r="H2" s="439" t="s">
+      <c r="G2" s="510"/>
+      <c r="H2" s="503" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="440"/>
-      <c r="J2" s="447" t="s">
+      <c r="I2" s="504"/>
+      <c r="J2" s="506" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="449"/>
-      <c r="L2" s="450" t="s">
+      <c r="K2" s="508"/>
+      <c r="L2" s="509" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="451"/>
-      <c r="N2" s="447" t="s">
+      <c r="M2" s="510"/>
+      <c r="N2" s="506" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="449"/>
-      <c r="P2" s="447" t="s">
+      <c r="O2" s="508"/>
+      <c r="P2" s="506" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="449"/>
+      <c r="Q2" s="508"/>
       <c r="R2" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="452"/>
+      <c r="S2" s="511"/>
     </row>
     <row r="3" spans="1:19" ht="47.25" customHeight="1">
       <c r="A3" s="67" t="s">
@@ -34842,622 +34886,622 @@
       <c r="R3" s="73" t="s">
         <v>1143</v>
       </c>
-      <c r="S3" s="452"/>
+      <c r="S3" s="511"/>
     </row>
     <row r="4" spans="1:19" ht="47.25" customHeight="1">
       <c r="A4" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="585" t="s">
+      <c r="B4" s="512" t="s">
         <v>1093</v>
       </c>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
-      <c r="E4" s="599" t="s">
+      <c r="C4" s="513"/>
+      <c r="D4" s="514"/>
+      <c r="E4" s="444" t="s">
         <v>1108</v>
       </c>
-      <c r="F4" s="445" t="s">
+      <c r="F4" s="515" t="s">
         <v>1136</v>
       </c>
-      <c r="G4" s="589"/>
-      <c r="H4" s="445" t="s">
+      <c r="G4" s="516"/>
+      <c r="H4" s="515" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="589"/>
-      <c r="J4" s="445" t="s">
+      <c r="I4" s="516"/>
+      <c r="J4" s="515" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="589"/>
-      <c r="L4" s="445" t="s">
+      <c r="K4" s="516"/>
+      <c r="L4" s="515" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="589"/>
-      <c r="N4" s="445" t="s">
+      <c r="M4" s="516"/>
+      <c r="N4" s="515" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="589"/>
-      <c r="P4" s="445" t="s">
+      <c r="O4" s="516"/>
+      <c r="P4" s="515" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="589"/>
-      <c r="R4" s="600" t="s">
+      <c r="Q4" s="516"/>
+      <c r="R4" s="445" t="s">
         <v>1146</v>
       </c>
-      <c r="S4" s="452"/>
+      <c r="S4" s="511"/>
     </row>
     <row r="5" spans="1:19" ht="47.25" customHeight="1">
       <c r="A5" s="67">
         <v>2</v>
       </c>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="515" t="s">
         <v>1094</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="589"/>
-      <c r="E5" s="599" t="s">
+      <c r="C5" s="517"/>
+      <c r="D5" s="516"/>
+      <c r="E5" s="444" t="s">
         <v>1109</v>
       </c>
-      <c r="F5" s="445" t="s">
+      <c r="F5" s="515" t="s">
         <v>1135</v>
       </c>
-      <c r="G5" s="589"/>
-      <c r="H5" s="445" t="s">
+      <c r="G5" s="516"/>
+      <c r="H5" s="515" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="589"/>
-      <c r="J5" s="445" t="s">
+      <c r="I5" s="516"/>
+      <c r="J5" s="515" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="589"/>
-      <c r="L5" s="445" t="s">
+      <c r="K5" s="516"/>
+      <c r="L5" s="515" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="589"/>
-      <c r="N5" s="445" t="s">
+      <c r="M5" s="516"/>
+      <c r="N5" s="515" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="589"/>
-      <c r="P5" s="445" t="s">
+      <c r="O5" s="516"/>
+      <c r="P5" s="515" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="589"/>
-      <c r="R5" s="599" t="s">
+      <c r="Q5" s="516"/>
+      <c r="R5" s="444" t="s">
         <v>1147</v>
       </c>
-      <c r="S5" s="452"/>
+      <c r="S5" s="511"/>
     </row>
     <row r="6" spans="1:19" ht="47.25" customHeight="1">
       <c r="A6" s="67">
         <v>3</v>
       </c>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="515" t="s">
         <v>1095</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="589"/>
-      <c r="E6" s="599" t="s">
+      <c r="C6" s="517"/>
+      <c r="D6" s="516"/>
+      <c r="E6" s="444" t="s">
         <v>1114</v>
       </c>
-      <c r="F6" s="445" t="s">
+      <c r="F6" s="515" t="s">
         <v>1134</v>
       </c>
-      <c r="G6" s="589"/>
-      <c r="H6" s="445" t="s">
+      <c r="G6" s="516"/>
+      <c r="H6" s="515" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="589"/>
-      <c r="J6" s="445" t="s">
+      <c r="I6" s="516"/>
+      <c r="J6" s="515" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="589"/>
-      <c r="L6" s="445" t="s">
+      <c r="K6" s="516"/>
+      <c r="L6" s="515" t="s">
         <v>117</v>
       </c>
-      <c r="M6" s="589"/>
-      <c r="N6" s="445" t="s">
+      <c r="M6" s="516"/>
+      <c r="N6" s="515" t="s">
         <v>118</v>
       </c>
-      <c r="O6" s="589"/>
-      <c r="P6" s="445" t="s">
+      <c r="O6" s="516"/>
+      <c r="P6" s="515" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="589"/>
-      <c r="R6" s="599" t="s">
+      <c r="Q6" s="516"/>
+      <c r="R6" s="444" t="s">
         <v>120</v>
       </c>
-      <c r="S6" s="452"/>
+      <c r="S6" s="511"/>
     </row>
     <row r="7" spans="1:19" ht="47.25" customHeight="1">
       <c r="A7" s="67">
         <v>4</v>
       </c>
-      <c r="B7" s="445" t="s">
+      <c r="B7" s="515" t="s">
         <v>1096</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="589"/>
-      <c r="E7" s="599" t="s">
+      <c r="C7" s="517"/>
+      <c r="D7" s="516"/>
+      <c r="E7" s="444" t="s">
         <v>1110</v>
       </c>
-      <c r="F7" s="445" t="s">
+      <c r="F7" s="515" t="s">
         <v>1133</v>
       </c>
-      <c r="G7" s="589"/>
-      <c r="H7" s="445" t="s">
+      <c r="G7" s="516"/>
+      <c r="H7" s="515" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="589"/>
-      <c r="J7" s="445" t="s">
+      <c r="I7" s="516"/>
+      <c r="J7" s="515" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="589"/>
-      <c r="L7" s="445" t="s">
+      <c r="K7" s="516"/>
+      <c r="L7" s="515" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="589"/>
-      <c r="N7" s="445" t="s">
+      <c r="M7" s="516"/>
+      <c r="N7" s="515" t="s">
         <v>124</v>
       </c>
-      <c r="O7" s="589"/>
-      <c r="P7" s="445" t="s">
+      <c r="O7" s="516"/>
+      <c r="P7" s="515" t="s">
         <v>125</v>
       </c>
-      <c r="Q7" s="589"/>
-      <c r="R7" s="599" t="s">
+      <c r="Q7" s="516"/>
+      <c r="R7" s="444" t="s">
         <v>126</v>
       </c>
-      <c r="S7" s="452"/>
+      <c r="S7" s="511"/>
     </row>
     <row r="8" spans="1:19" ht="47.25" customHeight="1">
       <c r="A8" s="67">
         <v>5</v>
       </c>
-      <c r="B8" s="445" t="s">
+      <c r="B8" s="515" t="s">
         <v>1097</v>
       </c>
-      <c r="C8" s="588"/>
-      <c r="D8" s="589"/>
-      <c r="E8" s="599" t="s">
+      <c r="C8" s="517"/>
+      <c r="D8" s="516"/>
+      <c r="E8" s="444" t="s">
         <v>1115</v>
       </c>
-      <c r="F8" s="445" t="s">
+      <c r="F8" s="515" t="s">
         <v>1132</v>
       </c>
-      <c r="G8" s="589"/>
-      <c r="H8" s="445" t="s">
+      <c r="G8" s="516"/>
+      <c r="H8" s="515" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="589"/>
-      <c r="J8" s="445" t="s">
+      <c r="I8" s="516"/>
+      <c r="J8" s="515" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="589"/>
-      <c r="L8" s="445" t="s">
+      <c r="K8" s="516"/>
+      <c r="L8" s="515" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="589"/>
-      <c r="N8" s="445" t="s">
+      <c r="M8" s="516"/>
+      <c r="N8" s="515" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="589"/>
-      <c r="P8" s="445" t="s">
+      <c r="O8" s="516"/>
+      <c r="P8" s="515" t="s">
         <v>131</v>
       </c>
-      <c r="Q8" s="589"/>
-      <c r="R8" s="599" t="s">
+      <c r="Q8" s="516"/>
+      <c r="R8" s="444" t="s">
         <v>132</v>
       </c>
-      <c r="S8" s="452"/>
+      <c r="S8" s="511"/>
     </row>
     <row r="9" spans="1:19" ht="47.25" customHeight="1">
       <c r="A9" s="67">
         <v>6</v>
       </c>
-      <c r="B9" s="445" t="s">
+      <c r="B9" s="515" t="s">
         <v>1098</v>
       </c>
-      <c r="C9" s="588"/>
-      <c r="D9" s="589"/>
-      <c r="E9" s="599" t="s">
+      <c r="C9" s="517"/>
+      <c r="D9" s="516"/>
+      <c r="E9" s="444" t="s">
         <v>1111</v>
       </c>
-      <c r="F9" s="445" t="s">
+      <c r="F9" s="515" t="s">
         <v>1131</v>
       </c>
-      <c r="G9" s="589"/>
-      <c r="H9" s="445" t="s">
+      <c r="G9" s="516"/>
+      <c r="H9" s="515" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="589"/>
-      <c r="J9" s="445" t="s">
+      <c r="I9" s="516"/>
+      <c r="J9" s="515" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="589"/>
-      <c r="L9" s="445" t="s">
+      <c r="K9" s="516"/>
+      <c r="L9" s="515" t="s">
         <v>135</v>
       </c>
-      <c r="M9" s="589"/>
-      <c r="N9" s="445" t="s">
+      <c r="M9" s="516"/>
+      <c r="N9" s="515" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="589"/>
-      <c r="P9" s="445" t="s">
+      <c r="O9" s="516"/>
+      <c r="P9" s="515" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="589"/>
-      <c r="R9" s="599" t="s">
+      <c r="Q9" s="516"/>
+      <c r="R9" s="444" t="s">
         <v>138</v>
       </c>
-      <c r="S9" s="452"/>
+      <c r="S9" s="511"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1">
       <c r="A10" s="67">
         <v>7</v>
       </c>
-      <c r="B10" s="445" t="s">
+      <c r="B10" s="515" t="s">
         <v>1099</v>
       </c>
-      <c r="C10" s="588"/>
-      <c r="D10" s="589"/>
-      <c r="E10" s="599" t="s">
+      <c r="C10" s="517"/>
+      <c r="D10" s="516"/>
+      <c r="E10" s="444" t="s">
         <v>1112</v>
       </c>
-      <c r="F10" s="445" t="s">
+      <c r="F10" s="515" t="s">
         <v>1130</v>
       </c>
-      <c r="G10" s="589"/>
-      <c r="H10" s="445" t="s">
+      <c r="G10" s="516"/>
+      <c r="H10" s="515" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="589"/>
-      <c r="J10" s="445" t="s">
+      <c r="I10" s="516"/>
+      <c r="J10" s="515" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="589"/>
-      <c r="L10" s="445" t="s">
+      <c r="K10" s="516"/>
+      <c r="L10" s="515" t="s">
         <v>141</v>
       </c>
-      <c r="M10" s="589"/>
-      <c r="N10" s="445" t="s">
+      <c r="M10" s="516"/>
+      <c r="N10" s="515" t="s">
         <v>142</v>
       </c>
-      <c r="O10" s="589"/>
-      <c r="P10" s="445" t="s">
+      <c r="O10" s="516"/>
+      <c r="P10" s="515" t="s">
         <v>143</v>
       </c>
-      <c r="Q10" s="589"/>
-      <c r="R10" s="599" t="s">
+      <c r="Q10" s="516"/>
+      <c r="R10" s="444" t="s">
         <v>144</v>
       </c>
-      <c r="S10" s="452"/>
+      <c r="S10" s="511"/>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1">
       <c r="A11" s="67">
         <v>8</v>
       </c>
-      <c r="B11" s="445" t="s">
+      <c r="B11" s="515" t="s">
         <v>1100</v>
       </c>
-      <c r="C11" s="588"/>
-      <c r="D11" s="589"/>
-      <c r="E11" s="599" t="s">
+      <c r="C11" s="517"/>
+      <c r="D11" s="516"/>
+      <c r="E11" s="444" t="s">
         <v>1113</v>
       </c>
-      <c r="F11" s="445" t="s">
+      <c r="F11" s="515" t="s">
         <v>1129</v>
       </c>
-      <c r="G11" s="589"/>
-      <c r="H11" s="445" t="s">
+      <c r="G11" s="516"/>
+      <c r="H11" s="515" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="589"/>
-      <c r="J11" s="445" t="s">
+      <c r="I11" s="516"/>
+      <c r="J11" s="515" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="589"/>
-      <c r="L11" s="445" t="s">
+      <c r="K11" s="516"/>
+      <c r="L11" s="515" t="s">
         <v>147</v>
       </c>
-      <c r="M11" s="589"/>
-      <c r="N11" s="445" t="s">
+      <c r="M11" s="516"/>
+      <c r="N11" s="515" t="s">
         <v>148</v>
       </c>
-      <c r="O11" s="589"/>
-      <c r="P11" s="445" t="s">
+      <c r="O11" s="516"/>
+      <c r="P11" s="515" t="s">
         <v>149</v>
       </c>
-      <c r="Q11" s="589"/>
-      <c r="R11" s="599" t="s">
+      <c r="Q11" s="516"/>
+      <c r="R11" s="444" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="452"/>
+      <c r="S11" s="511"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1">
       <c r="A12" s="67">
         <v>9</v>
       </c>
-      <c r="B12" s="445" t="s">
+      <c r="B12" s="515" t="s">
         <v>1101</v>
       </c>
-      <c r="C12" s="588"/>
-      <c r="D12" s="589"/>
-      <c r="E12" s="599" t="s">
+      <c r="C12" s="517"/>
+      <c r="D12" s="516"/>
+      <c r="E12" s="444" t="s">
         <v>1116</v>
       </c>
-      <c r="F12" s="445" t="s">
+      <c r="F12" s="515" t="s">
         <v>1128</v>
       </c>
-      <c r="G12" s="589"/>
-      <c r="H12" s="445" t="s">
+      <c r="G12" s="516"/>
+      <c r="H12" s="515" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="589"/>
-      <c r="J12" s="445" t="s">
+      <c r="I12" s="516"/>
+      <c r="J12" s="515" t="s">
         <v>152</v>
       </c>
-      <c r="K12" s="589"/>
-      <c r="L12" s="445" t="s">
+      <c r="K12" s="516"/>
+      <c r="L12" s="515" t="s">
         <v>153</v>
       </c>
-      <c r="M12" s="589"/>
-      <c r="N12" s="445" t="s">
+      <c r="M12" s="516"/>
+      <c r="N12" s="515" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="589"/>
-      <c r="P12" s="445" t="s">
+      <c r="O12" s="516"/>
+      <c r="P12" s="515" t="s">
         <v>155</v>
       </c>
-      <c r="Q12" s="589"/>
-      <c r="R12" s="599" t="s">
+      <c r="Q12" s="516"/>
+      <c r="R12" s="444" t="s">
         <v>156</v>
       </c>
-      <c r="S12" s="452"/>
+      <c r="S12" s="511"/>
     </row>
     <row r="13" spans="1:19" ht="47.25" customHeight="1" thickBot="1">
       <c r="A13" s="79">
         <v>10</v>
       </c>
-      <c r="B13" s="590" t="s">
+      <c r="B13" s="518" t="s">
         <v>1102</v>
       </c>
-      <c r="C13" s="591"/>
-      <c r="D13" s="592"/>
-      <c r="E13" s="601" t="s">
+      <c r="C13" s="519"/>
+      <c r="D13" s="520"/>
+      <c r="E13" s="446" t="s">
         <v>1117</v>
       </c>
-      <c r="F13" s="446" t="s">
+      <c r="F13" s="521" t="s">
         <v>1127</v>
       </c>
-      <c r="G13" s="602"/>
-      <c r="H13" s="446" t="s">
+      <c r="G13" s="522"/>
+      <c r="H13" s="521" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="602"/>
-      <c r="J13" s="446" t="s">
+      <c r="I13" s="522"/>
+      <c r="J13" s="521" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="602"/>
-      <c r="L13" s="446" t="s">
+      <c r="K13" s="522"/>
+      <c r="L13" s="521" t="s">
         <v>159</v>
       </c>
-      <c r="M13" s="602"/>
-      <c r="N13" s="446" t="s">
+      <c r="M13" s="522"/>
+      <c r="N13" s="521" t="s">
         <v>160</v>
       </c>
-      <c r="O13" s="602"/>
-      <c r="P13" s="446" t="s">
+      <c r="O13" s="522"/>
+      <c r="P13" s="521" t="s">
         <v>161</v>
       </c>
-      <c r="Q13" s="602"/>
-      <c r="R13" s="601" t="s">
+      <c r="Q13" s="522"/>
+      <c r="R13" s="446" t="s">
         <v>162</v>
       </c>
-      <c r="S13" s="452"/>
+      <c r="S13" s="511"/>
     </row>
     <row r="14" spans="1:19" ht="47.25" customHeight="1">
       <c r="A14" s="84">
         <v>11</v>
       </c>
-      <c r="B14" s="444" t="s">
+      <c r="B14" s="523" t="s">
         <v>1103</v>
       </c>
-      <c r="C14" s="593"/>
-      <c r="D14" s="594"/>
-      <c r="E14" s="603" t="s">
+      <c r="C14" s="528"/>
+      <c r="D14" s="524"/>
+      <c r="E14" s="447" t="s">
         <v>1118</v>
       </c>
-      <c r="F14" s="444" t="s">
+      <c r="F14" s="523" t="s">
         <v>1126</v>
       </c>
-      <c r="G14" s="594"/>
-      <c r="H14" s="444" t="s">
+      <c r="G14" s="524"/>
+      <c r="H14" s="523" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="594"/>
-      <c r="J14" s="444" t="s">
+      <c r="I14" s="524"/>
+      <c r="J14" s="523" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="594"/>
-      <c r="L14" s="444" t="s">
+      <c r="K14" s="524"/>
+      <c r="L14" s="523" t="s">
         <v>165</v>
       </c>
-      <c r="M14" s="594"/>
-      <c r="N14" s="444" t="s">
+      <c r="M14" s="524"/>
+      <c r="N14" s="523" t="s">
         <v>166</v>
       </c>
-      <c r="O14" s="594"/>
-      <c r="P14" s="444" t="s">
+      <c r="O14" s="524"/>
+      <c r="P14" s="523" t="s">
         <v>167</v>
       </c>
-      <c r="Q14" s="594"/>
-      <c r="R14" s="603" t="s">
+      <c r="Q14" s="524"/>
+      <c r="R14" s="447" t="s">
         <v>168</v>
       </c>
-      <c r="S14" s="452"/>
+      <c r="S14" s="511"/>
     </row>
     <row r="15" spans="1:19" ht="47.25" customHeight="1">
       <c r="A15" s="67">
         <v>12</v>
       </c>
-      <c r="B15" s="443" t="s">
+      <c r="B15" s="525" t="s">
         <v>1104</v>
       </c>
-      <c r="C15" s="595"/>
-      <c r="D15" s="596"/>
-      <c r="E15" s="604" t="s">
+      <c r="C15" s="526"/>
+      <c r="D15" s="527"/>
+      <c r="E15" s="448" t="s">
         <v>1119</v>
       </c>
-      <c r="F15" s="443" t="s">
+      <c r="F15" s="525" t="s">
         <v>1125</v>
       </c>
-      <c r="G15" s="596"/>
-      <c r="H15" s="443" t="s">
+      <c r="G15" s="527"/>
+      <c r="H15" s="525" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="596"/>
-      <c r="J15" s="443" t="s">
+      <c r="I15" s="527"/>
+      <c r="J15" s="525" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="596"/>
-      <c r="L15" s="443" t="s">
+      <c r="K15" s="527"/>
+      <c r="L15" s="525" t="s">
         <v>171</v>
       </c>
-      <c r="M15" s="596"/>
-      <c r="N15" s="443" t="s">
+      <c r="M15" s="527"/>
+      <c r="N15" s="525" t="s">
         <v>172</v>
       </c>
-      <c r="O15" s="596"/>
-      <c r="P15" s="443" t="s">
+      <c r="O15" s="527"/>
+      <c r="P15" s="525" t="s">
         <v>173</v>
       </c>
-      <c r="Q15" s="596"/>
-      <c r="R15" s="604" t="s">
+      <c r="Q15" s="527"/>
+      <c r="R15" s="448" t="s">
         <v>174</v>
       </c>
-      <c r="S15" s="452"/>
+      <c r="S15" s="511"/>
     </row>
     <row r="16" spans="1:19" ht="47.25" customHeight="1">
       <c r="A16" s="67">
         <v>13</v>
       </c>
-      <c r="B16" s="443" t="s">
+      <c r="B16" s="525" t="s">
         <v>1105</v>
       </c>
-      <c r="C16" s="595"/>
-      <c r="D16" s="596"/>
-      <c r="E16" s="604" t="s">
+      <c r="C16" s="526"/>
+      <c r="D16" s="527"/>
+      <c r="E16" s="448" t="s">
         <v>1120</v>
       </c>
-      <c r="F16" s="443" t="s">
+      <c r="F16" s="525" t="s">
         <v>1124</v>
       </c>
-      <c r="G16" s="596"/>
-      <c r="H16" s="443" t="s">
+      <c r="G16" s="527"/>
+      <c r="H16" s="525" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="596"/>
-      <c r="J16" s="443" t="s">
+      <c r="I16" s="527"/>
+      <c r="J16" s="525" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="596"/>
-      <c r="L16" s="443" t="s">
+      <c r="K16" s="527"/>
+      <c r="L16" s="525" t="s">
         <v>177</v>
       </c>
-      <c r="M16" s="596"/>
-      <c r="N16" s="443" t="s">
+      <c r="M16" s="527"/>
+      <c r="N16" s="525" t="s">
         <v>178</v>
       </c>
-      <c r="O16" s="596"/>
-      <c r="P16" s="443" t="s">
+      <c r="O16" s="527"/>
+      <c r="P16" s="525" t="s">
         <v>179</v>
       </c>
-      <c r="Q16" s="596"/>
-      <c r="R16" s="604" t="s">
+      <c r="Q16" s="527"/>
+      <c r="R16" s="448" t="s">
         <v>180</v>
       </c>
-      <c r="S16" s="452"/>
+      <c r="S16" s="511"/>
     </row>
     <row r="17" spans="1:19" ht="47.25" customHeight="1">
       <c r="A17" s="67">
         <v>14</v>
       </c>
-      <c r="B17" s="443" t="s">
+      <c r="B17" s="525" t="s">
         <v>1106</v>
       </c>
-      <c r="C17" s="595"/>
-      <c r="D17" s="596"/>
-      <c r="E17" s="604" t="s">
+      <c r="C17" s="526"/>
+      <c r="D17" s="527"/>
+      <c r="E17" s="448" t="s">
         <v>1121</v>
       </c>
-      <c r="F17" s="443" t="s">
+      <c r="F17" s="525" t="s">
         <v>1123</v>
       </c>
-      <c r="G17" s="596"/>
-      <c r="H17" s="443" t="s">
+      <c r="G17" s="527"/>
+      <c r="H17" s="525" t="s">
         <v>181</v>
       </c>
-      <c r="I17" s="596"/>
-      <c r="J17" s="443" t="s">
+      <c r="I17" s="527"/>
+      <c r="J17" s="525" t="s">
         <v>182</v>
       </c>
-      <c r="K17" s="596"/>
-      <c r="L17" s="443" t="s">
+      <c r="K17" s="527"/>
+      <c r="L17" s="525" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="596"/>
-      <c r="N17" s="443" t="s">
+      <c r="M17" s="527"/>
+      <c r="N17" s="525" t="s">
         <v>184</v>
       </c>
-      <c r="O17" s="596"/>
-      <c r="P17" s="443" t="s">
+      <c r="O17" s="527"/>
+      <c r="P17" s="525" t="s">
         <v>185</v>
       </c>
-      <c r="Q17" s="596"/>
-      <c r="R17" s="604" t="s">
+      <c r="Q17" s="527"/>
+      <c r="R17" s="448" t="s">
         <v>186</v>
       </c>
-      <c r="S17" s="452"/>
+      <c r="S17" s="511"/>
     </row>
     <row r="18" spans="1:19" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A18" s="606" t="s">
+      <c r="A18" s="450" t="s">
         <v>1145</v>
       </c>
-      <c r="B18" s="442" t="s">
+      <c r="B18" s="529" t="s">
         <v>1107</v>
       </c>
-      <c r="C18" s="597"/>
-      <c r="D18" s="598"/>
-      <c r="E18" s="605" t="s">
+      <c r="C18" s="531"/>
+      <c r="D18" s="530"/>
+      <c r="E18" s="449" t="s">
         <v>1122</v>
       </c>
-      <c r="F18" s="442" t="s">
+      <c r="F18" s="529" t="s">
         <v>1121</v>
       </c>
-      <c r="G18" s="598"/>
-      <c r="H18" s="442" t="s">
+      <c r="G18" s="530"/>
+      <c r="H18" s="529" t="s">
         <v>187</v>
       </c>
-      <c r="I18" s="598"/>
-      <c r="J18" s="442" t="s">
+      <c r="I18" s="530"/>
+      <c r="J18" s="529" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="598"/>
-      <c r="L18" s="442" t="s">
+      <c r="K18" s="530"/>
+      <c r="L18" s="529" t="s">
         <v>189</v>
       </c>
-      <c r="M18" s="598"/>
-      <c r="N18" s="442" t="s">
+      <c r="M18" s="530"/>
+      <c r="N18" s="529" t="s">
         <v>190</v>
       </c>
-      <c r="O18" s="598"/>
-      <c r="P18" s="442" t="s">
+      <c r="O18" s="530"/>
+      <c r="P18" s="529" t="s">
         <v>191</v>
       </c>
-      <c r="Q18" s="598"/>
-      <c r="R18" s="605" t="s">
+      <c r="Q18" s="530"/>
+      <c r="R18" s="449" t="s">
         <v>192</v>
       </c>
-      <c r="S18" s="452"/>
+      <c r="S18" s="511"/>
     </row>
     <row r="19" spans="1:19" ht="47.25" customHeight="1">
       <c r="A19" s="54" t="s">
@@ -35466,6 +35510,96 @@
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -35490,96 +35624,6 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35598,7 +35642,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="616" t="s">
+      <c r="A1" s="538" t="s">
         <v>1081</v>
       </c>
       <c r="B1" s="318" t="s">
@@ -35630,7 +35674,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A2" s="617"/>
+      <c r="A2" s="539"/>
       <c r="B2" s="317" t="s">
         <v>1151</v>
       </c>
@@ -35660,7 +35704,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="618" t="s">
+      <c r="A3" s="459" t="s">
         <v>644</v>
       </c>
       <c r="B3" s="315">
@@ -36108,7 +36152,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A17" s="606" t="s">
+      <c r="A17" s="450" t="s">
         <v>1153</v>
       </c>
       <c r="B17" s="305">
@@ -36140,28 +36184,28 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" s="615" t="s">
+      <c r="B18" s="532" t="s">
         <v>1152</v>
       </c>
-      <c r="C18" s="453"/>
-      <c r="D18" s="453"/>
-      <c r="E18" s="453"/>
-      <c r="F18" s="453"/>
-      <c r="G18" s="453"/>
-      <c r="H18" s="453"/>
-      <c r="I18" s="453"/>
-      <c r="J18" s="454"/>
+      <c r="C18" s="533"/>
+      <c r="D18" s="533"/>
+      <c r="E18" s="533"/>
+      <c r="F18" s="533"/>
+      <c r="G18" s="533"/>
+      <c r="H18" s="533"/>
+      <c r="I18" s="533"/>
+      <c r="J18" s="534"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B19" s="455"/>
-      <c r="C19" s="456"/>
-      <c r="D19" s="456"/>
-      <c r="E19" s="456"/>
-      <c r="F19" s="456"/>
-      <c r="G19" s="456"/>
-      <c r="H19" s="456"/>
-      <c r="I19" s="456"/>
-      <c r="J19" s="457"/>
+      <c r="B19" s="535"/>
+      <c r="C19" s="536"/>
+      <c r="D19" s="536"/>
+      <c r="E19" s="536"/>
+      <c r="F19" s="536"/>
+      <c r="G19" s="536"/>
+      <c r="H19" s="536"/>
+      <c r="I19" s="536"/>
+      <c r="J19" s="537"/>
     </row>
   </sheetData>
   <mergeCells count="2">
